--- a/excel/form2excel.xlsx
+++ b/excel/form2excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>School Form 2 (SF2) Daily Attendance Report for learner</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Month Reporting</t>
   </si>
   <si>
-    <t>January</t>
+    <t>June</t>
   </si>
   <si>
     <t>Name of School</t>
@@ -49,13 +49,13 @@
     <t>Grade Level</t>
   </si>
   <si>
-    <t>Grade 1</t>
+    <t>Nursery</t>
   </si>
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Faith</t>
+    <t>Genesis</t>
   </si>
   <si>
     <t xml:space="preserve">LEARNER'S NAME                                                                                         (Last Name, First Name, Middle Name)                                  </t>
@@ -166,6 +166,9 @@
     </r>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -178,73 +181,64 @@
     <t>Th</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>ABSENT</t>
   </si>
   <si>
     <t>TARDY</t>
   </si>
   <si>
-    <t>Dumale, Aseel Ahmed D</t>
-  </si>
-  <si>
-    <t>Karganilla, Jeroel K</t>
-  </si>
-  <si>
-    <t>Kumar, Kein Andrei K</t>
-  </si>
-  <si>
-    <t>Licudan III, Lance Adrian L</t>
-  </si>
-  <si>
-    <t>Ramos, Ivan Denzel R</t>
-  </si>
-  <si>
-    <t>Roberonta, Caizer Jazz R</t>
-  </si>
-  <si>
-    <t>Siy, Paulo Anthonio S</t>
-  </si>
-  <si>
-    <t>Tapon, Jondirk Steven T</t>
+    <t>Balasoto, Exzekarl Vynz B</t>
+  </si>
+  <si>
+    <t>Baradi, Dave B</t>
+  </si>
+  <si>
+    <t>Cidro, Jr., Jason C</t>
+  </si>
+  <si>
+    <t>Custodio, Brennan James C</t>
+  </si>
+  <si>
+    <t>De Mesa, Ravie Ramviell D</t>
+  </si>
+  <si>
+    <t>Maglaque, Aaron Micho M</t>
+  </si>
+  <si>
+    <t>NuÃ±ez, Altheo Deron N</t>
+  </si>
+  <si>
+    <t>Olivar, Kevin Marion O</t>
+  </si>
+  <si>
+    <t>Pajarit, Earl Zach Yosef P</t>
+  </si>
+  <si>
+    <t>Tadina, John Kyzier T</t>
   </si>
   <si>
     <t>MALE  | TOTAL Per Day</t>
   </si>
   <si>
-    <t>Ancheta, Kylie Nicole A</t>
-  </si>
-  <si>
-    <t>Badua, Zia Jheiezel B</t>
-  </si>
-  <si>
-    <t>Caoagas, Aiselgi Christin C</t>
-  </si>
-  <si>
-    <t>Cuatriz, Angelica Kate C</t>
-  </si>
-  <si>
-    <t>Ducusin, Michaella D</t>
-  </si>
-  <si>
-    <t>Galera, Nicole Rei G</t>
-  </si>
-  <si>
-    <t>Ligoyligoy, Anne Chenel L</t>
-  </si>
-  <si>
-    <t>Llarinas, Angelyn Mhae L</t>
-  </si>
-  <si>
-    <t>Locsin, Patricia Angela L</t>
-  </si>
-  <si>
-    <t>Oloteo, Ayeneth Mae Ghel O</t>
-  </si>
-  <si>
-    <t>Opinion, Zyd Arah Jyll O</t>
+    <t>Badua, Athena Lianne B</t>
+  </si>
+  <si>
+    <t>Cardinez, Aliah Nicole Mariae C</t>
+  </si>
+  <si>
+    <t>De Guzman, Aliyah Keith D</t>
+  </si>
+  <si>
+    <t>Gaetos, Clara Jamila G</t>
+  </si>
+  <si>
+    <t>Sagun, Reanne May S</t>
+  </si>
+  <si>
+    <t>Suliva, Chingmin S</t>
+  </si>
+  <si>
+    <t>Zaghloul, Sara Z</t>
   </si>
   <si>
     <t xml:space="preserve">            FEMALE  | DAILY TOTAL </t>
@@ -696,7 +690,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="95">
     <border/>
     <border>
       <left style="medium">
@@ -1076,6 +1070,9 @@
       </bottom>
     </border>
     <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1090,42 +1087,611 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="dotted">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="dotted">
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="dotted">
+      <diagonal style="thin">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
+    <border diagonalUp="true" diagonalDown="true">
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="dotted">
+      <diagonal style="thin">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1138,11 +1704,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="dotted">
+      <diagonal style="thin">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
+    <border diagonalUp="true" diagonalDown="true">
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1152,660 +1718,32 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="dotted">
+      <diagonal style="thin">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="true">
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -1819,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="293">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2069,15 +2007,15 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2124,12 +2062,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2153,7 +2085,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2201,7 +2133,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="164" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="164" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -2216,13 +2148,13 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2246,81 +2178,81 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2342,7 +2274,7 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2372,7 +2304,7 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2417,7 +2349,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2444,22 +2376,22 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2474,13 +2406,13 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2504,19 +2436,19 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="165" fillId="2" borderId="73" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="165" fillId="2" borderId="71" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="87" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="16" numFmtId="165" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="87" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="9" fillId="2" borderId="73" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="9" fillId="2" borderId="71" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="74" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="72" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2564,13 +2496,13 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2579,16 +2511,16 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2597,6 +2529,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2609,73 +2547,73 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2684,7 +2622,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="93" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2693,23 +2631,11 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="98" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3079,7 +3005,7 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="80" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="Z45" sqref="Z45"/>
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="10.28515625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3162,84 +3088,84 @@
       <c r="AJ1" s="19"/>
     </row>
     <row r="2" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
     </row>
     <row r="3" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
     </row>
     <row r="4" spans="1:37" customHeight="1" ht="6.75">
       <c r="A4" s="52"/>
@@ -3322,43 +3248,43 @@
       <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="129">
+      <c r="C6" s="127">
         <v>400075</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="52"/>
       <c r="J6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="131"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="129"/>
       <c r="P6" s="52"/>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="129" t="s">
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="131"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="129"/>
       <c r="AD6" s="52"/>
       <c r="AE6" s="52"/>
       <c r="AF6" s="52"/>
@@ -3427,167 +3353,163 @@
       <c r="O8" s="69"/>
       <c r="R8" s="58"/>
       <c r="S8" s="58"/>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="133"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="182" t="s">
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="132" t="s">
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="133"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="135" t="s">
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="136"/>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="136"/>
-      <c r="AH8" s="137"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="135"/>
       <c r="AI8" s="58"/>
       <c r="AJ8" s="58"/>
     </row>
     <row r="9" spans="1:37" customHeight="1" ht="6"/>
     <row r="10" spans="1:37" customHeight="1" ht="20.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="169" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="184" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="169"/>
+      <c r="AC10" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="148" t="s">
+      <c r="AD10" s="182"/>
+      <c r="AE10" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="149"/>
-      <c r="AI10" s="149"/>
-      <c r="AJ10" s="150"/>
+      <c r="AF10" s="147"/>
+      <c r="AG10" s="147"/>
+      <c r="AH10" s="147"/>
+      <c r="AI10" s="147"/>
+      <c r="AJ10" s="148"/>
     </row>
     <row r="11" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="176"/>
       <c r="D11" s="70">
         <v>1</v>
       </c>
       <c r="E11" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" s="72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11" s="73">
         <v>8</v>
       </c>
       <c r="J11" s="71">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K11" s="71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L11" s="71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" s="74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11" s="70">
         <v>15</v>
       </c>
       <c r="O11" s="71">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P11" s="71">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="71">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R11" s="72">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S11" s="73">
         <v>22</v>
       </c>
       <c r="T11" s="71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U11" s="71">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V11" s="71">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W11" s="74">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X11" s="70">
         <v>29</v>
       </c>
-      <c r="Y11" s="71">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="71">
-        <v>31</v>
-      </c>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
       <c r="AA11" s="71"/>
       <c r="AB11" s="72"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="153"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="150"/>
+      <c r="AI11" s="150"/>
+      <c r="AJ11" s="151"/>
     </row>
     <row r="12" spans="1:37" customHeight="1" ht="24.75">
-      <c r="A12" s="179"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="75" t="s">
         <v>17</v>
       </c>
@@ -3651,863 +3573,867 @@
       <c r="X12" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="76" t="s">
-        <v>19</v>
-      </c>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
       <c r="AA12" s="79"/>
       <c r="AB12" s="77"/>
-      <c r="AC12" s="127" t="s">
+      <c r="AC12" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="AD12" s="127" t="s">
+      <c r="AD12" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="155"/>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="155"/>
-      <c r="AJ12" s="156"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="153"/>
+      <c r="AH12" s="153"/>
+      <c r="AI12" s="153"/>
+      <c r="AJ12" s="154"/>
     </row>
     <row r="13" spans="1:37" customHeight="1" ht="21.95">
       <c r="A13" s="80">
         <v>1</v>
       </c>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="280"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="279"/>
-      <c r="U13" s="279"/>
-      <c r="V13" s="279"/>
-      <c r="W13" s="281"/>
-      <c r="X13" s="282"/>
-      <c r="Y13" s="279"/>
-      <c r="Z13" s="279"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="278"/>
+      <c r="I13" s="279"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="277"/>
+      <c r="L13" s="277"/>
+      <c r="M13" s="280"/>
+      <c r="N13" s="281"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="277"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="277"/>
+      <c r="U13" s="277"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="280"/>
+      <c r="X13" s="281"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
       <c r="AC13" s="57"/>
       <c r="AD13" s="23"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="163"/>
+      <c r="AE13" s="159"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
+      <c r="AI13" s="160"/>
+      <c r="AJ13" s="161"/>
     </row>
     <row r="14" spans="1:37" customHeight="1" ht="21.95">
       <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="271" t="s">
+      <c r="B14" s="269" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="272"/>
-      <c r="D14" s="283"/>
-      <c r="E14" s="284"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="285"/>
-      <c r="H14" s="286"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
+      <c r="C14" s="270"/>
+      <c r="D14" s="282"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="284"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="284"/>
+      <c r="K14" s="284"/>
+      <c r="L14" s="284"/>
       <c r="M14" s="287"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="286"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="285"/>
-      <c r="U14" s="285"/>
-      <c r="V14" s="285"/>
+      <c r="N14" s="288"/>
+      <c r="O14" s="284"/>
+      <c r="P14" s="284"/>
+      <c r="Q14" s="284"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="286"/>
+      <c r="T14" s="284"/>
+      <c r="U14" s="284"/>
+      <c r="V14" s="284"/>
       <c r="W14" s="287"/>
       <c r="X14" s="288"/>
-      <c r="Y14" s="285"/>
-      <c r="Z14" s="285"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="26"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="146"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="146"/>
-      <c r="AJ14" s="147"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="144"/>
+      <c r="AI14" s="144"/>
+      <c r="AJ14" s="145"/>
     </row>
     <row r="15" spans="1:37" customHeight="1" ht="21.95">
       <c r="A15" s="80">
         <v>3</v>
       </c>
-      <c r="B15" s="271" t="s">
+      <c r="B15" s="269" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="272"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="285"/>
-      <c r="H15" s="286"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="284"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="286"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
+      <c r="M15" s="287"/>
       <c r="N15" s="288"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="286"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="285"/>
-      <c r="V15" s="285"/>
+      <c r="O15" s="284"/>
+      <c r="P15" s="284"/>
+      <c r="Q15" s="284"/>
+      <c r="R15" s="285"/>
+      <c r="S15" s="286"/>
+      <c r="T15" s="284"/>
+      <c r="U15" s="284"/>
+      <c r="V15" s="284"/>
       <c r="W15" s="287"/>
       <c r="X15" s="288"/>
-      <c r="Y15" s="285"/>
-      <c r="Z15" s="285"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="26"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="146"/>
-      <c r="AG15" s="146"/>
-      <c r="AH15" s="146"/>
-      <c r="AI15" s="146"/>
-      <c r="AJ15" s="147"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="144"/>
+      <c r="AJ15" s="145"/>
     </row>
     <row r="16" spans="1:37" customHeight="1" ht="21.95">
       <c r="A16" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="269" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="284"/>
-      <c r="F16" s="285"/>
-      <c r="G16" s="285"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="286"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="285"/>
-      <c r="V16" s="285"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="282"/>
+      <c r="E16" s="283"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="285"/>
+      <c r="I16" s="286"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="287"/>
+      <c r="N16" s="288"/>
+      <c r="O16" s="284"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="284"/>
+      <c r="R16" s="285"/>
+      <c r="S16" s="286"/>
+      <c r="T16" s="284"/>
+      <c r="U16" s="284"/>
+      <c r="V16" s="284"/>
       <c r="W16" s="287"/>
       <c r="X16" s="288"/>
-      <c r="Y16" s="285"/>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="26"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="146"/>
-      <c r="AG16" s="146"/>
-      <c r="AH16" s="146"/>
-      <c r="AI16" s="146"/>
-      <c r="AJ16" s="147"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="144"/>
+      <c r="AI16" s="144"/>
+      <c r="AJ16" s="145"/>
     </row>
     <row r="17" spans="1:37" customHeight="1" ht="21.95">
       <c r="A17" s="80">
         <v>5</v>
       </c>
-      <c r="B17" s="271" t="s">
+      <c r="B17" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="272"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="284"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="285"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="286"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="285"/>
-      <c r="U17" s="285"/>
-      <c r="V17" s="285"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="285"/>
+      <c r="I17" s="286"/>
+      <c r="J17" s="284"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="284"/>
+      <c r="M17" s="287"/>
+      <c r="N17" s="288"/>
+      <c r="O17" s="284"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="284"/>
+      <c r="R17" s="285"/>
+      <c r="S17" s="286"/>
+      <c r="T17" s="284"/>
+      <c r="U17" s="284"/>
+      <c r="V17" s="284"/>
       <c r="W17" s="287"/>
       <c r="X17" s="288"/>
-      <c r="Y17" s="285"/>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="26"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="146"/>
-      <c r="AH17" s="146"/>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="147"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="145"/>
     </row>
     <row r="18" spans="1:37" customHeight="1" ht="21.95">
       <c r="A18" s="13">
         <v>6</v>
       </c>
-      <c r="B18" s="271" t="s">
+      <c r="B18" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="272"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="285"/>
-      <c r="G18" s="285"/>
-      <c r="H18" s="286"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="286"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="285"/>
-      <c r="V18" s="285"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="283"/>
+      <c r="F18" s="284"/>
+      <c r="G18" s="284"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="286"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="287"/>
+      <c r="N18" s="288"/>
+      <c r="O18" s="284"/>
+      <c r="P18" s="284"/>
+      <c r="Q18" s="284"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="286"/>
+      <c r="T18" s="284"/>
+      <c r="U18" s="284"/>
+      <c r="V18" s="284"/>
       <c r="W18" s="287"/>
       <c r="X18" s="288"/>
-      <c r="Y18" s="285"/>
-      <c r="Z18" s="285"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="26"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="147"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="145"/>
     </row>
     <row r="19" spans="1:37" customHeight="1" ht="21.95">
       <c r="A19" s="80">
         <v>7</v>
       </c>
-      <c r="B19" s="271" t="s">
+      <c r="B19" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="272"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="285"/>
-      <c r="G19" s="285"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="286"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="285"/>
-      <c r="U19" s="285"/>
-      <c r="V19" s="285"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="283"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="286"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="287"/>
+      <c r="N19" s="288"/>
+      <c r="O19" s="284"/>
+      <c r="P19" s="284"/>
+      <c r="Q19" s="284"/>
+      <c r="R19" s="285"/>
+      <c r="S19" s="286"/>
+      <c r="T19" s="284"/>
+      <c r="U19" s="284"/>
+      <c r="V19" s="284"/>
       <c r="W19" s="287"/>
       <c r="X19" s="288"/>
-      <c r="Y19" s="285"/>
-      <c r="Z19" s="285"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="26"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="146"/>
-      <c r="AG19" s="146"/>
-      <c r="AH19" s="146"/>
-      <c r="AI19" s="146"/>
-      <c r="AJ19" s="147"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="145"/>
     </row>
     <row r="20" spans="1:37" customHeight="1" ht="21.95">
       <c r="A20" s="13">
         <v>8</v>
       </c>
-      <c r="B20" s="271" t="s">
+      <c r="B20" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="272"/>
-      <c r="D20" s="283"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="286"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="285"/>
-      <c r="R20" s="286"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="285"/>
-      <c r="V20" s="285"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="283"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="286"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="288"/>
+      <c r="O20" s="284"/>
+      <c r="P20" s="284"/>
+      <c r="Q20" s="284"/>
+      <c r="R20" s="285"/>
+      <c r="S20" s="286"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="284"/>
+      <c r="V20" s="284"/>
       <c r="W20" s="287"/>
       <c r="X20" s="288"/>
-      <c r="Y20" s="285"/>
-      <c r="Z20" s="285"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="26"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="146"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="147"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="144"/>
+      <c r="AI20" s="144"/>
+      <c r="AJ20" s="145"/>
     </row>
     <row r="21" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A21" s="80"/>
-      <c r="B21" s="271"/>
-      <c r="C21" s="272"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
+      <c r="A21" s="80">
+        <v>9</v>
+      </c>
+      <c r="B21" s="269" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="270"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="285"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="287"/>
+      <c r="N21" s="288"/>
+      <c r="O21" s="284"/>
+      <c r="P21" s="284"/>
+      <c r="Q21" s="284"/>
+      <c r="R21" s="285"/>
+      <c r="S21" s="286"/>
+      <c r="T21" s="284"/>
+      <c r="U21" s="284"/>
+      <c r="V21" s="284"/>
+      <c r="W21" s="287"/>
+      <c r="X21" s="288"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="26"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="146"/>
-      <c r="AG21" s="146"/>
-      <c r="AH21" s="146"/>
-      <c r="AI21" s="146"/>
-      <c r="AJ21" s="147"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="144"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="145"/>
     </row>
     <row r="22" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A22" s="13"/>
-      <c r="B22" s="271"/>
-      <c r="C22" s="272"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
+      <c r="A22" s="13">
+        <v>10</v>
+      </c>
+      <c r="B22" s="269" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="270"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="286"/>
+      <c r="J22" s="284"/>
+      <c r="K22" s="284"/>
+      <c r="L22" s="284"/>
+      <c r="M22" s="287"/>
+      <c r="N22" s="288"/>
+      <c r="O22" s="284"/>
+      <c r="P22" s="284"/>
+      <c r="Q22" s="284"/>
+      <c r="R22" s="285"/>
+      <c r="S22" s="286"/>
+      <c r="T22" s="284"/>
+      <c r="U22" s="284"/>
+      <c r="V22" s="284"/>
+      <c r="W22" s="287"/>
+      <c r="X22" s="288"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="26"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="146"/>
-      <c r="AG22" s="146"/>
-      <c r="AH22" s="146"/>
-      <c r="AI22" s="146"/>
-      <c r="AJ22" s="147"/>
+      <c r="AE22" s="143"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="145"/>
     </row>
     <row r="23" spans="1:37" customHeight="1" ht="21.95">
       <c r="A23" s="80"/>
-      <c r="B23" s="271"/>
-      <c r="C23" s="272"/>
+      <c r="B23" s="269"/>
+      <c r="C23" s="270"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="26"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="146"/>
-      <c r="AG23" s="146"/>
-      <c r="AH23" s="146"/>
-      <c r="AI23" s="146"/>
-      <c r="AJ23" s="147"/>
+      <c r="AE23" s="143"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="144"/>
+      <c r="AJ23" s="145"/>
     </row>
     <row r="24" spans="1:37" customHeight="1" ht="21.95">
       <c r="A24" s="13"/>
-      <c r="B24" s="265"/>
-      <c r="C24" s="266"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="26"/>
-      <c r="AE24" s="142"/>
-      <c r="AF24" s="143"/>
-      <c r="AG24" s="143"/>
-      <c r="AH24" s="143"/>
-      <c r="AI24" s="143"/>
-      <c r="AJ24" s="144"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="141"/>
+      <c r="AI24" s="141"/>
+      <c r="AJ24" s="142"/>
     </row>
     <row r="25" spans="1:37" customHeight="1" ht="21.95">
       <c r="A25" s="13"/>
-      <c r="B25" s="265"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
+      <c r="B25" s="263"/>
+      <c r="C25" s="264"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="26"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="146"/>
-      <c r="AG25" s="146"/>
-      <c r="AH25" s="146"/>
-      <c r="AI25" s="146"/>
-      <c r="AJ25" s="147"/>
+      <c r="AE25" s="143"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="144"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="145"/>
     </row>
     <row r="26" spans="1:37" customHeight="1" ht="21.95">
       <c r="A26" s="13"/>
-      <c r="B26" s="265"/>
-      <c r="C26" s="266"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
+      <c r="B26" s="263"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="26"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="146"/>
-      <c r="AG26" s="146"/>
-      <c r="AH26" s="146"/>
-      <c r="AI26" s="146"/>
-      <c r="AJ26" s="147"/>
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="145"/>
     </row>
     <row r="27" spans="1:37" customHeight="1" ht="21.95">
       <c r="A27" s="13"/>
-      <c r="B27" s="265"/>
-      <c r="C27" s="266"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
+      <c r="B27" s="263"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="26"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="147"/>
+      <c r="AE27" s="143"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="144"/>
+      <c r="AJ27" s="145"/>
     </row>
     <row r="28" spans="1:37" customHeight="1" ht="21.95">
       <c r="A28" s="13"/>
-      <c r="B28" s="265"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
+      <c r="B28" s="263"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="18"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="146"/>
-      <c r="AH28" s="146"/>
-      <c r="AI28" s="146"/>
-      <c r="AJ28" s="147"/>
+      <c r="AE28" s="143"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="145"/>
     </row>
     <row r="29" spans="1:37" customHeight="1" ht="21.95">
       <c r="A29" s="13"/>
-      <c r="B29" s="265"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
+      <c r="B29" s="263"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="18"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="146"/>
-      <c r="AG29" s="146"/>
-      <c r="AH29" s="146"/>
-      <c r="AI29" s="146"/>
-      <c r="AJ29" s="147"/>
+      <c r="AE29" s="143"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="144"/>
+      <c r="AI29" s="144"/>
+      <c r="AJ29" s="145"/>
     </row>
     <row r="30" spans="1:37" customHeight="1" ht="21.95">
       <c r="A30" s="13"/>
-      <c r="B30" s="265"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
+      <c r="B30" s="263"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="18"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="146"/>
-      <c r="AG30" s="146"/>
-      <c r="AH30" s="146"/>
-      <c r="AI30" s="146"/>
-      <c r="AJ30" s="147"/>
+      <c r="AE30" s="143"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="144"/>
+      <c r="AH30" s="144"/>
+      <c r="AI30" s="144"/>
+      <c r="AJ30" s="145"/>
     </row>
     <row r="31" spans="1:37" customHeight="1" ht="21.95">
       <c r="A31" s="13"/>
-      <c r="B31" s="265"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
+      <c r="B31" s="263"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="146"/>
-      <c r="AG31" s="146"/>
-      <c r="AH31" s="146"/>
-      <c r="AI31" s="146"/>
-      <c r="AJ31" s="147"/>
+      <c r="AE31" s="143"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="144"/>
+      <c r="AH31" s="144"/>
+      <c r="AI31" s="144"/>
+      <c r="AJ31" s="145"/>
     </row>
     <row r="32" spans="1:37" customHeight="1" ht="21.95">
       <c r="A32" s="13"/>
-      <c r="B32" s="265"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
+      <c r="B32" s="263"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="18"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="146"/>
-      <c r="AG32" s="146"/>
-      <c r="AH32" s="146"/>
-      <c r="AI32" s="146"/>
-      <c r="AJ32" s="147"/>
+      <c r="AE32" s="143"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="144"/>
+      <c r="AH32" s="144"/>
+      <c r="AI32" s="144"/>
+      <c r="AJ32" s="145"/>
     </row>
     <row r="33" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A33" s="96"/>
-      <c r="B33" s="267"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="164"/>
-      <c r="AF33" s="165"/>
-      <c r="AG33" s="165"/>
-      <c r="AH33" s="165"/>
-      <c r="AI33" s="165"/>
-      <c r="AJ33" s="166"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="163"/>
+      <c r="AG33" s="163"/>
+      <c r="AH33" s="163"/>
+      <c r="AI33" s="163"/>
+      <c r="AJ33" s="164"/>
     </row>
     <row r="34" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A34" s="259" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="260"/>
-      <c r="C34" s="261"/>
+      <c r="A34" s="257" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="258"/>
+      <c r="C34" s="259"/>
       <c r="D34" s="75"/>
       <c r="E34" s="76"/>
       <c r="F34" s="76"/>
@@ -4533,1098 +4459,1082 @@
       <c r="Z34" s="76"/>
       <c r="AA34" s="79"/>
       <c r="AB34" s="79"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="105"/>
-      <c r="AE34" s="106"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="107"/>
-      <c r="AI34" s="107"/>
-      <c r="AJ34" s="108"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="105"/>
+      <c r="AJ34" s="106"/>
     </row>
     <row r="35" spans="1:37" customHeight="1" ht="21.95">
       <c r="A35" s="80">
         <v>1</v>
       </c>
-      <c r="B35" s="273" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="274"/>
-      <c r="D35" s="277"/>
+      <c r="B35" s="271" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="272"/>
+      <c r="D35" s="275"/>
       <c r="E35" s="289"/>
       <c r="F35" s="290"/>
       <c r="G35" s="290"/>
-      <c r="H35" s="280"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="280"/>
-      <c r="S35" s="291"/>
-      <c r="T35" s="279"/>
-      <c r="U35" s="279"/>
-      <c r="V35" s="279"/>
-      <c r="W35" s="281"/>
-      <c r="X35" s="282"/>
-      <c r="Y35" s="279"/>
-      <c r="Z35" s="279"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
+      <c r="H35" s="278"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="277"/>
+      <c r="K35" s="277"/>
+      <c r="L35" s="277"/>
+      <c r="M35" s="280"/>
+      <c r="N35" s="281"/>
+      <c r="O35" s="277"/>
+      <c r="P35" s="277"/>
+      <c r="Q35" s="277"/>
+      <c r="R35" s="278"/>
+      <c r="S35" s="279"/>
+      <c r="T35" s="277"/>
+      <c r="U35" s="277"/>
+      <c r="V35" s="277"/>
+      <c r="W35" s="280"/>
+      <c r="X35" s="281"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
       <c r="AC35" s="57"/>
       <c r="AD35" s="23"/>
-      <c r="AE35" s="161"/>
-      <c r="AF35" s="162"/>
-      <c r="AG35" s="162"/>
-      <c r="AH35" s="162"/>
-      <c r="AI35" s="162"/>
-      <c r="AJ35" s="163"/>
+      <c r="AE35" s="159"/>
+      <c r="AF35" s="160"/>
+      <c r="AG35" s="160"/>
+      <c r="AH35" s="160"/>
+      <c r="AI35" s="160"/>
+      <c r="AJ35" s="161"/>
     </row>
     <row r="36" spans="1:37" customHeight="1" ht="21.95">
       <c r="A36" s="13">
         <v>2</v>
       </c>
-      <c r="B36" s="275" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="276"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="285"/>
-      <c r="G36" s="285"/>
-      <c r="H36" s="286"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="285"/>
-      <c r="K36" s="285"/>
-      <c r="L36" s="285"/>
+      <c r="B36" s="273" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="274"/>
+      <c r="D36" s="291"/>
+      <c r="E36" s="292"/>
+      <c r="F36" s="284"/>
+      <c r="G36" s="284"/>
+      <c r="H36" s="285"/>
+      <c r="I36" s="286"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="284"/>
+      <c r="L36" s="284"/>
       <c r="M36" s="287"/>
       <c r="N36" s="288"/>
-      <c r="O36" s="285"/>
-      <c r="P36" s="285"/>
-      <c r="Q36" s="285"/>
-      <c r="R36" s="286"/>
-      <c r="S36" s="294"/>
-      <c r="T36" s="285"/>
-      <c r="U36" s="285"/>
-      <c r="V36" s="285"/>
+      <c r="O36" s="284"/>
+      <c r="P36" s="284"/>
+      <c r="Q36" s="284"/>
+      <c r="R36" s="285"/>
+      <c r="S36" s="286"/>
+      <c r="T36" s="284"/>
+      <c r="U36" s="284"/>
+      <c r="V36" s="284"/>
       <c r="W36" s="287"/>
       <c r="X36" s="288"/>
-      <c r="Y36" s="285"/>
-      <c r="Z36" s="285"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="87"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="26"/>
-      <c r="AE36" s="145"/>
-      <c r="AF36" s="146"/>
-      <c r="AG36" s="146"/>
-      <c r="AH36" s="146"/>
-      <c r="AI36" s="146"/>
-      <c r="AJ36" s="147"/>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="144"/>
+      <c r="AG36" s="144"/>
+      <c r="AH36" s="144"/>
+      <c r="AI36" s="144"/>
+      <c r="AJ36" s="145"/>
     </row>
     <row r="37" spans="1:37" customHeight="1" ht="21.95">
       <c r="A37" s="13">
         <v>3</v>
       </c>
-      <c r="B37" s="275" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="276"/>
-      <c r="D37" s="292"/>
-      <c r="E37" s="293"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="285"/>
-      <c r="H37" s="286"/>
-      <c r="I37" s="295"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="296"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="286"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="285"/>
-      <c r="V37" s="285"/>
+      <c r="B37" s="273" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="274"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="284"/>
+      <c r="G37" s="284"/>
+      <c r="H37" s="285"/>
+      <c r="I37" s="286"/>
+      <c r="J37" s="284"/>
+      <c r="K37" s="284"/>
+      <c r="L37" s="284"/>
+      <c r="M37" s="287"/>
+      <c r="N37" s="288"/>
+      <c r="O37" s="284"/>
+      <c r="P37" s="284"/>
+      <c r="Q37" s="284"/>
+      <c r="R37" s="285"/>
+      <c r="S37" s="286"/>
+      <c r="T37" s="284"/>
+      <c r="U37" s="284"/>
+      <c r="V37" s="284"/>
       <c r="W37" s="287"/>
       <c r="X37" s="288"/>
-      <c r="Y37" s="285"/>
-      <c r="Z37" s="285"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="87"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="26"/>
-      <c r="AE37" s="145"/>
-      <c r="AF37" s="146"/>
-      <c r="AG37" s="146"/>
-      <c r="AH37" s="146"/>
-      <c r="AI37" s="146"/>
-      <c r="AJ37" s="147"/>
+      <c r="AE37" s="143"/>
+      <c r="AF37" s="144"/>
+      <c r="AG37" s="144"/>
+      <c r="AH37" s="144"/>
+      <c r="AI37" s="144"/>
+      <c r="AJ37" s="145"/>
     </row>
     <row r="38" spans="1:37" customHeight="1" ht="21.95">
       <c r="A38" s="13">
         <v>4</v>
       </c>
-      <c r="B38" s="275" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="276"/>
-      <c r="D38" s="292"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="285"/>
-      <c r="H38" s="286"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="286"/>
-      <c r="S38" s="295"/>
-      <c r="T38" s="285"/>
-      <c r="U38" s="285"/>
-      <c r="V38" s="285"/>
+      <c r="B38" s="273" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="274"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="284"/>
+      <c r="G38" s="284"/>
+      <c r="H38" s="285"/>
+      <c r="I38" s="286"/>
+      <c r="J38" s="284"/>
+      <c r="K38" s="284"/>
+      <c r="L38" s="284"/>
+      <c r="M38" s="287"/>
+      <c r="N38" s="288"/>
+      <c r="O38" s="284"/>
+      <c r="P38" s="284"/>
+      <c r="Q38" s="284"/>
+      <c r="R38" s="285"/>
+      <c r="S38" s="286"/>
+      <c r="T38" s="284"/>
+      <c r="U38" s="284"/>
+      <c r="V38" s="284"/>
       <c r="W38" s="287"/>
       <c r="X38" s="288"/>
-      <c r="Y38" s="285"/>
-      <c r="Z38" s="285"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="87"/>
+      <c r="AB38" s="87"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="26"/>
-      <c r="AE38" s="145"/>
-      <c r="AF38" s="146"/>
-      <c r="AG38" s="146"/>
-      <c r="AH38" s="146"/>
-      <c r="AI38" s="146"/>
-      <c r="AJ38" s="147"/>
+      <c r="AE38" s="143"/>
+      <c r="AF38" s="144"/>
+      <c r="AG38" s="144"/>
+      <c r="AH38" s="144"/>
+      <c r="AI38" s="144"/>
+      <c r="AJ38" s="145"/>
     </row>
     <row r="39" spans="1:37" customHeight="1" ht="21.95">
       <c r="A39" s="13">
         <v>5</v>
       </c>
-      <c r="B39" s="275" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="292"/>
-      <c r="E39" s="293"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="286"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="286"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="285"/>
-      <c r="V39" s="285"/>
+      <c r="B39" s="273" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="274"/>
+      <c r="D39" s="291"/>
+      <c r="E39" s="292"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="284"/>
+      <c r="H39" s="285"/>
+      <c r="I39" s="286"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="284"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="287"/>
+      <c r="N39" s="288"/>
+      <c r="O39" s="284"/>
+      <c r="P39" s="284"/>
+      <c r="Q39" s="284"/>
+      <c r="R39" s="285"/>
+      <c r="S39" s="286"/>
+      <c r="T39" s="284"/>
+      <c r="U39" s="284"/>
+      <c r="V39" s="284"/>
       <c r="W39" s="287"/>
       <c r="X39" s="288"/>
-      <c r="Y39" s="285"/>
-      <c r="Z39" s="285"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="87"/>
+      <c r="AB39" s="87"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="26"/>
-      <c r="AE39" s="145"/>
-      <c r="AF39" s="146"/>
-      <c r="AG39" s="146"/>
-      <c r="AH39" s="146"/>
-      <c r="AI39" s="146"/>
-      <c r="AJ39" s="147"/>
+      <c r="AE39" s="143"/>
+      <c r="AF39" s="144"/>
+      <c r="AG39" s="144"/>
+      <c r="AH39" s="144"/>
+      <c r="AI39" s="144"/>
+      <c r="AJ39" s="145"/>
     </row>
     <row r="40" spans="1:37" customHeight="1" ht="21.95">
       <c r="A40" s="13">
         <v>6</v>
       </c>
-      <c r="B40" s="275" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="292"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="285"/>
-      <c r="H40" s="286"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
+      <c r="B40" s="273" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="274"/>
+      <c r="D40" s="291"/>
+      <c r="E40" s="292"/>
+      <c r="F40" s="284"/>
+      <c r="G40" s="284"/>
+      <c r="H40" s="285"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="284"/>
+      <c r="K40" s="284"/>
+      <c r="L40" s="284"/>
       <c r="M40" s="287"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="286"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="285"/>
-      <c r="U40" s="285"/>
-      <c r="V40" s="285"/>
+      <c r="N40" s="288"/>
+      <c r="O40" s="284"/>
+      <c r="P40" s="284"/>
+      <c r="Q40" s="284"/>
+      <c r="R40" s="285"/>
+      <c r="S40" s="286"/>
+      <c r="T40" s="284"/>
+      <c r="U40" s="284"/>
+      <c r="V40" s="284"/>
       <c r="W40" s="287"/>
       <c r="X40" s="288"/>
-      <c r="Y40" s="285"/>
-      <c r="Z40" s="285"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
-      <c r="AC40" s="109"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="87"/>
+      <c r="AB40" s="87"/>
+      <c r="AC40" s="107"/>
       <c r="AD40" s="26"/>
-      <c r="AE40" s="145"/>
-      <c r="AF40" s="146"/>
-      <c r="AG40" s="146"/>
-      <c r="AH40" s="146"/>
-      <c r="AI40" s="146"/>
-      <c r="AJ40" s="147"/>
+      <c r="AE40" s="143"/>
+      <c r="AF40" s="144"/>
+      <c r="AG40" s="144"/>
+      <c r="AH40" s="144"/>
+      <c r="AI40" s="144"/>
+      <c r="AJ40" s="145"/>
     </row>
     <row r="41" spans="1:37" customHeight="1" ht="21.95">
       <c r="A41" s="13">
         <v>7</v>
       </c>
-      <c r="B41" s="275" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="276"/>
-      <c r="D41" s="292"/>
-      <c r="E41" s="293"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
-      <c r="H41" s="286"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="285"/>
-      <c r="R41" s="286"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="285"/>
-      <c r="U41" s="285"/>
-      <c r="V41" s="285"/>
+      <c r="B41" s="273" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="274"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
+      <c r="H41" s="285"/>
+      <c r="I41" s="286"/>
+      <c r="J41" s="284"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="287"/>
+      <c r="N41" s="288"/>
+      <c r="O41" s="284"/>
+      <c r="P41" s="284"/>
+      <c r="Q41" s="284"/>
+      <c r="R41" s="285"/>
+      <c r="S41" s="286"/>
+      <c r="T41" s="284"/>
+      <c r="U41" s="284"/>
+      <c r="V41" s="284"/>
       <c r="W41" s="287"/>
       <c r="X41" s="288"/>
-      <c r="Y41" s="285"/>
-      <c r="Z41" s="285"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="87"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="26"/>
-      <c r="AE41" s="145"/>
-      <c r="AF41" s="146"/>
-      <c r="AG41" s="146"/>
-      <c r="AH41" s="146"/>
-      <c r="AI41" s="146"/>
-      <c r="AJ41" s="147"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="144"/>
+      <c r="AG41" s="144"/>
+      <c r="AH41" s="144"/>
+      <c r="AI41" s="144"/>
+      <c r="AJ41" s="145"/>
     </row>
     <row r="42" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A42" s="13">
-        <v>8</v>
-      </c>
-      <c r="B42" s="275" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="276"/>
-      <c r="D42" s="292"/>
-      <c r="E42" s="293"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="285"/>
-      <c r="H42" s="286"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="285"/>
-      <c r="V42" s="285"/>
-      <c r="W42" s="287"/>
-      <c r="X42" s="288"/>
-      <c r="Y42" s="285"/>
-      <c r="Z42" s="285"/>
-      <c r="AA42" s="89"/>
-      <c r="AB42" s="89"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="274"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="86"/>
+      <c r="Z42" s="86"/>
+      <c r="AA42" s="87"/>
+      <c r="AB42" s="87"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="26"/>
-      <c r="AE42" s="145"/>
-      <c r="AF42" s="146"/>
-      <c r="AG42" s="146"/>
-      <c r="AH42" s="146"/>
-      <c r="AI42" s="146"/>
-      <c r="AJ42" s="147"/>
+      <c r="AE42" s="143"/>
+      <c r="AF42" s="144"/>
+      <c r="AG42" s="144"/>
+      <c r="AH42" s="144"/>
+      <c r="AI42" s="144"/>
+      <c r="AJ42" s="145"/>
     </row>
     <row r="43" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A43" s="13">
-        <v>9</v>
-      </c>
-      <c r="B43" s="275" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="276"/>
-      <c r="D43" s="292"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="286"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="286"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="285"/>
-      <c r="U43" s="285"/>
-      <c r="V43" s="285"/>
-      <c r="W43" s="287"/>
-      <c r="X43" s="288"/>
-      <c r="Y43" s="285"/>
-      <c r="Z43" s="285"/>
-      <c r="AA43" s="89"/>
-      <c r="AB43" s="89"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="86"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="87"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="26"/>
-      <c r="AE43" s="145"/>
-      <c r="AF43" s="146"/>
-      <c r="AG43" s="146"/>
-      <c r="AH43" s="146"/>
-      <c r="AI43" s="146"/>
-      <c r="AJ43" s="147"/>
+      <c r="AE43" s="143"/>
+      <c r="AF43" s="144"/>
+      <c r="AG43" s="144"/>
+      <c r="AH43" s="144"/>
+      <c r="AI43" s="144"/>
+      <c r="AJ43" s="145"/>
     </row>
     <row r="44" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A44" s="13">
-        <v>10</v>
-      </c>
-      <c r="B44" s="275" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="276"/>
-      <c r="D44" s="292"/>
-      <c r="E44" s="293"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="285"/>
-      <c r="H44" s="286"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="285"/>
-      <c r="V44" s="285"/>
-      <c r="W44" s="287"/>
-      <c r="X44" s="288"/>
-      <c r="Y44" s="285"/>
-      <c r="Z44" s="285"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="273"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="86"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="87"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="26"/>
-      <c r="AE44" s="145"/>
-      <c r="AF44" s="146"/>
-      <c r="AG44" s="146"/>
-      <c r="AH44" s="146"/>
-      <c r="AI44" s="146"/>
-      <c r="AJ44" s="147"/>
+      <c r="AE44" s="143"/>
+      <c r="AF44" s="144"/>
+      <c r="AG44" s="144"/>
+      <c r="AH44" s="144"/>
+      <c r="AI44" s="144"/>
+      <c r="AJ44" s="145"/>
     </row>
     <row r="45" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A45" s="13">
-        <v>11</v>
-      </c>
-      <c r="B45" s="275" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="276"/>
-      <c r="D45" s="292"/>
-      <c r="E45" s="293"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="286"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="286"/>
-      <c r="S45" s="294"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="285"/>
-      <c r="V45" s="285"/>
-      <c r="W45" s="287"/>
-      <c r="X45" s="288"/>
-      <c r="Y45" s="285"/>
-      <c r="Z45" s="285"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="89"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="86"/>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="87"/>
+      <c r="AB45" s="87"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="26"/>
-      <c r="AE45" s="145"/>
-      <c r="AF45" s="146"/>
-      <c r="AG45" s="146"/>
-      <c r="AH45" s="146"/>
-      <c r="AI45" s="146"/>
-      <c r="AJ45" s="147"/>
+      <c r="AE45" s="143"/>
+      <c r="AF45" s="144"/>
+      <c r="AG45" s="144"/>
+      <c r="AH45" s="144"/>
+      <c r="AI45" s="144"/>
+      <c r="AJ45" s="145"/>
     </row>
     <row r="46" spans="1:37" customHeight="1" ht="21.95">
       <c r="A46" s="13"/>
-      <c r="B46" s="275"/>
-      <c r="C46" s="276"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="274"/>
       <c r="D46" s="55"/>
       <c r="E46" s="56"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="86"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="87"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="145"/>
-      <c r="AF46" s="146"/>
-      <c r="AG46" s="146"/>
-      <c r="AH46" s="146"/>
-      <c r="AI46" s="146"/>
-      <c r="AJ46" s="147"/>
+      <c r="AE46" s="143"/>
+      <c r="AF46" s="144"/>
+      <c r="AG46" s="144"/>
+      <c r="AH46" s="144"/>
+      <c r="AI46" s="144"/>
+      <c r="AJ46" s="145"/>
     </row>
     <row r="47" spans="1:37" customHeight="1" ht="21.95">
       <c r="A47" s="13"/>
-      <c r="B47" s="275"/>
-      <c r="C47" s="276"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="274"/>
       <c r="D47" s="55"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="89"/>
-      <c r="AB47" s="89"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="87"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="26"/>
-      <c r="AE47" s="145"/>
-      <c r="AF47" s="146"/>
-      <c r="AG47" s="146"/>
-      <c r="AH47" s="146"/>
-      <c r="AI47" s="146"/>
-      <c r="AJ47" s="147"/>
+      <c r="AE47" s="143"/>
+      <c r="AF47" s="144"/>
+      <c r="AG47" s="144"/>
+      <c r="AH47" s="144"/>
+      <c r="AI47" s="144"/>
+      <c r="AJ47" s="145"/>
     </row>
     <row r="48" spans="1:37" customHeight="1" ht="21.95">
       <c r="A48" s="13"/>
-      <c r="B48" s="275"/>
-      <c r="C48" s="276"/>
+      <c r="B48" s="273"/>
+      <c r="C48" s="274"/>
       <c r="D48" s="55"/>
       <c r="E48" s="56"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="89"/>
-      <c r="AB48" s="89"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="86"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="26"/>
-      <c r="AE48" s="145"/>
-      <c r="AF48" s="146"/>
-      <c r="AG48" s="146"/>
-      <c r="AH48" s="146"/>
-      <c r="AI48" s="146"/>
-      <c r="AJ48" s="147"/>
+      <c r="AE48" s="143"/>
+      <c r="AF48" s="144"/>
+      <c r="AG48" s="144"/>
+      <c r="AH48" s="144"/>
+      <c r="AI48" s="144"/>
+      <c r="AJ48" s="145"/>
     </row>
     <row r="49" spans="1:37" customHeight="1" ht="21.95">
       <c r="A49" s="13"/>
-      <c r="B49" s="265"/>
-      <c r="C49" s="266"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="89"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="89"/>
-      <c r="AB49" s="89"/>
+      <c r="B49" s="263"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="86"/>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="87"/>
+      <c r="AB49" s="87"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="26"/>
-      <c r="AE49" s="145"/>
-      <c r="AF49" s="146"/>
-      <c r="AG49" s="146"/>
-      <c r="AH49" s="146"/>
-      <c r="AI49" s="146"/>
-      <c r="AJ49" s="147"/>
+      <c r="AE49" s="143"/>
+      <c r="AF49" s="144"/>
+      <c r="AG49" s="144"/>
+      <c r="AH49" s="144"/>
+      <c r="AI49" s="144"/>
+      <c r="AJ49" s="145"/>
     </row>
     <row r="50" spans="1:37" customHeight="1" ht="21.95">
       <c r="A50" s="13"/>
-      <c r="B50" s="265"/>
-      <c r="C50" s="266"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="86"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="89"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="89"/>
-      <c r="AB50" s="89"/>
+      <c r="B50" s="263"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+      <c r="W50" s="87"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="86"/>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="87"/>
+      <c r="AB50" s="87"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="26"/>
-      <c r="AE50" s="145"/>
-      <c r="AF50" s="146"/>
-      <c r="AG50" s="146"/>
-      <c r="AH50" s="146"/>
-      <c r="AI50" s="146"/>
-      <c r="AJ50" s="147"/>
+      <c r="AE50" s="143"/>
+      <c r="AF50" s="144"/>
+      <c r="AG50" s="144"/>
+      <c r="AH50" s="144"/>
+      <c r="AI50" s="144"/>
+      <c r="AJ50" s="145"/>
     </row>
     <row r="51" spans="1:37" customHeight="1" ht="21.95">
       <c r="A51" s="13"/>
-      <c r="B51" s="265"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="86"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="89"/>
-      <c r="AB51" s="89"/>
+      <c r="B51" s="263"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="87"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="86"/>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="87"/>
+      <c r="AB51" s="87"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="26"/>
-      <c r="AE51" s="145"/>
-      <c r="AF51" s="146"/>
-      <c r="AG51" s="146"/>
-      <c r="AH51" s="146"/>
-      <c r="AI51" s="146"/>
-      <c r="AJ51" s="147"/>
+      <c r="AE51" s="143"/>
+      <c r="AF51" s="144"/>
+      <c r="AG51" s="144"/>
+      <c r="AH51" s="144"/>
+      <c r="AI51" s="144"/>
+      <c r="AJ51" s="145"/>
     </row>
     <row r="52" spans="1:37" customHeight="1" ht="21.95">
       <c r="A52" s="13"/>
-      <c r="B52" s="265"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="89"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="89"/>
-      <c r="AB52" s="89"/>
+      <c r="B52" s="263"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="87"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="87"/>
+      <c r="AB52" s="87"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="26"/>
-      <c r="AE52" s="145"/>
-      <c r="AF52" s="146"/>
-      <c r="AG52" s="146"/>
-      <c r="AH52" s="146"/>
-      <c r="AI52" s="146"/>
-      <c r="AJ52" s="147"/>
+      <c r="AE52" s="143"/>
+      <c r="AF52" s="144"/>
+      <c r="AG52" s="144"/>
+      <c r="AH52" s="144"/>
+      <c r="AI52" s="144"/>
+      <c r="AJ52" s="145"/>
     </row>
     <row r="53" spans="1:37" customHeight="1" ht="21.95">
       <c r="A53" s="13"/>
-      <c r="B53" s="265"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="89"/>
-      <c r="AB53" s="89"/>
+      <c r="B53" s="263"/>
+      <c r="C53" s="264"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="87"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="87"/>
+      <c r="AB53" s="87"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="26"/>
-      <c r="AE53" s="145"/>
-      <c r="AF53" s="146"/>
-      <c r="AG53" s="146"/>
-      <c r="AH53" s="146"/>
-      <c r="AI53" s="146"/>
-      <c r="AJ53" s="147"/>
+      <c r="AE53" s="143"/>
+      <c r="AF53" s="144"/>
+      <c r="AG53" s="144"/>
+      <c r="AH53" s="144"/>
+      <c r="AI53" s="144"/>
+      <c r="AJ53" s="145"/>
     </row>
     <row r="54" spans="1:37" customHeight="1" ht="21.95">
       <c r="A54" s="13"/>
-      <c r="B54" s="265"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="87"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="89"/>
-      <c r="AB54" s="89"/>
+      <c r="B54" s="263"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="86"/>
+      <c r="P54" s="86"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
+      <c r="W54" s="87"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="86"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="87"/>
+      <c r="AB54" s="87"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="26"/>
-      <c r="AE54" s="145"/>
-      <c r="AF54" s="146"/>
-      <c r="AG54" s="146"/>
-      <c r="AH54" s="146"/>
-      <c r="AI54" s="146"/>
-      <c r="AJ54" s="147"/>
+      <c r="AE54" s="143"/>
+      <c r="AF54" s="144"/>
+      <c r="AG54" s="144"/>
+      <c r="AH54" s="144"/>
+      <c r="AI54" s="144"/>
+      <c r="AJ54" s="145"/>
     </row>
     <row r="55" spans="1:37" customHeight="1" ht="21.95">
       <c r="A55" s="13"/>
-      <c r="B55" s="265"/>
-      <c r="C55" s="266"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="90"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="89"/>
-      <c r="AB55" s="89"/>
+      <c r="B55" s="263"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="86"/>
+      <c r="P55" s="86"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="86"/>
+      <c r="Z55" s="86"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="87"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="26"/>
-      <c r="AE55" s="145"/>
-      <c r="AF55" s="146"/>
-      <c r="AG55" s="146"/>
-      <c r="AH55" s="146"/>
-      <c r="AI55" s="146"/>
-      <c r="AJ55" s="147"/>
+      <c r="AE55" s="143"/>
+      <c r="AF55" s="144"/>
+      <c r="AG55" s="144"/>
+      <c r="AH55" s="144"/>
+      <c r="AI55" s="144"/>
+      <c r="AJ55" s="145"/>
     </row>
     <row r="56" spans="1:37" customHeight="1" ht="21.95">
       <c r="A56" s="13"/>
-      <c r="B56" s="265"/>
-      <c r="C56" s="266"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="89"/>
-      <c r="X56" s="90"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="89"/>
-      <c r="AB56" s="89"/>
+      <c r="B56" s="263"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="86"/>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="87"/>
+      <c r="AB56" s="87"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="26"/>
-      <c r="AE56" s="145"/>
-      <c r="AF56" s="146"/>
-      <c r="AG56" s="146"/>
-      <c r="AH56" s="146"/>
-      <c r="AI56" s="146"/>
-      <c r="AJ56" s="147"/>
+      <c r="AE56" s="143"/>
+      <c r="AF56" s="144"/>
+      <c r="AG56" s="144"/>
+      <c r="AH56" s="144"/>
+      <c r="AI56" s="144"/>
+      <c r="AJ56" s="145"/>
     </row>
     <row r="57" spans="1:37" customHeight="1" ht="21.95">
       <c r="A57" s="13"/>
-      <c r="B57" s="265"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="86"/>
-      <c r="S57" s="87"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="89"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="89"/>
-      <c r="AB57" s="89"/>
+      <c r="B57" s="263"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="86"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="86"/>
+      <c r="P57" s="86"/>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="86"/>
+      <c r="U57" s="86"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="87"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="86"/>
+      <c r="Z57" s="86"/>
+      <c r="AA57" s="87"/>
+      <c r="AB57" s="87"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="26"/>
-      <c r="AE57" s="145"/>
-      <c r="AF57" s="146"/>
-      <c r="AG57" s="146"/>
-      <c r="AH57" s="146"/>
-      <c r="AI57" s="146"/>
-      <c r="AJ57" s="147"/>
+      <c r="AE57" s="143"/>
+      <c r="AF57" s="144"/>
+      <c r="AG57" s="144"/>
+      <c r="AH57" s="144"/>
+      <c r="AI57" s="144"/>
+      <c r="AJ57" s="145"/>
     </row>
     <row r="58" spans="1:37" customHeight="1" ht="21.95">
       <c r="A58" s="13"/>
-      <c r="B58" s="265"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="86"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="89"/>
-      <c r="X58" s="90"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="89"/>
-      <c r="AB58" s="89"/>
+      <c r="B58" s="263"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="86"/>
+      <c r="P58" s="86"/>
+      <c r="Q58" s="86"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="85"/>
+      <c r="T58" s="86"/>
+      <c r="U58" s="86"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="87"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="86"/>
+      <c r="Z58" s="86"/>
+      <c r="AA58" s="87"/>
+      <c r="AB58" s="87"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="26"/>
-      <c r="AE58" s="145"/>
-      <c r="AF58" s="146"/>
-      <c r="AG58" s="146"/>
-      <c r="AH58" s="146"/>
-      <c r="AI58" s="146"/>
-      <c r="AJ58" s="147"/>
+      <c r="AE58" s="143"/>
+      <c r="AF58" s="144"/>
+      <c r="AG58" s="144"/>
+      <c r="AH58" s="144"/>
+      <c r="AI58" s="144"/>
+      <c r="AJ58" s="145"/>
     </row>
     <row r="59" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A59" s="96"/>
-      <c r="B59" s="267"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="100"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="101"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="98"/>
-      <c r="Z59" s="98"/>
-      <c r="AA59" s="101"/>
-      <c r="AB59" s="101"/>
-      <c r="AC59" s="102"/>
-      <c r="AD59" s="103"/>
-      <c r="AE59" s="164"/>
-      <c r="AF59" s="165"/>
-      <c r="AG59" s="165"/>
-      <c r="AH59" s="165"/>
-      <c r="AI59" s="165"/>
-      <c r="AJ59" s="166"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="265"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="97"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
+      <c r="W59" s="99"/>
+      <c r="X59" s="95"/>
+      <c r="Y59" s="96"/>
+      <c r="Z59" s="96"/>
+      <c r="AA59" s="99"/>
+      <c r="AB59" s="99"/>
+      <c r="AC59" s="100"/>
+      <c r="AD59" s="101"/>
+      <c r="AE59" s="162"/>
+      <c r="AF59" s="163"/>
+      <c r="AG59" s="163"/>
+      <c r="AH59" s="163"/>
+      <c r="AI59" s="163"/>
+      <c r="AJ59" s="164"/>
     </row>
     <row r="60" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A60" s="262" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="263"/>
-      <c r="C60" s="264"/>
+      <c r="A60" s="260" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="261"/>
+      <c r="C60" s="262"/>
       <c r="D60" s="80"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="115"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="113"/>
       <c r="N60" s="80"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="112"/>
-      <c r="R60" s="113"/>
-      <c r="S60" s="114"/>
-      <c r="T60" s="112"/>
-      <c r="U60" s="112"/>
-      <c r="V60" s="112"/>
-      <c r="W60" s="115"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="111"/>
+      <c r="S60" s="112"/>
+      <c r="T60" s="110"/>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
+      <c r="W60" s="113"/>
       <c r="X60" s="80"/>
-      <c r="Y60" s="112"/>
-      <c r="Z60" s="112"/>
-      <c r="AA60" s="115"/>
-      <c r="AB60" s="115"/>
+      <c r="Y60" s="110"/>
+      <c r="Z60" s="110"/>
+      <c r="AA60" s="113"/>
+      <c r="AB60" s="113"/>
       <c r="AC60" s="57"/>
       <c r="AD60" s="23"/>
-      <c r="AE60" s="244"/>
-      <c r="AF60" s="245"/>
-      <c r="AG60" s="245"/>
-      <c r="AH60" s="245"/>
-      <c r="AI60" s="245"/>
-      <c r="AJ60" s="246"/>
+      <c r="AE60" s="242"/>
+      <c r="AF60" s="243"/>
+      <c r="AG60" s="243"/>
+      <c r="AH60" s="243"/>
+      <c r="AI60" s="243"/>
+      <c r="AJ60" s="244"/>
     </row>
     <row r="61" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A61" s="203" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="204"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="120"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="119"/>
-      <c r="T61" s="117"/>
-      <c r="U61" s="117"/>
-      <c r="V61" s="117"/>
-      <c r="W61" s="120"/>
-      <c r="X61" s="116"/>
-      <c r="Y61" s="117"/>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="120"/>
-      <c r="AB61" s="120"/>
+      <c r="A61" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="202"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="118"/>
+      <c r="N61" s="114"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="117"/>
+      <c r="T61" s="115"/>
+      <c r="U61" s="115"/>
+      <c r="V61" s="115"/>
+      <c r="W61" s="118"/>
+      <c r="X61" s="114"/>
+      <c r="Y61" s="115"/>
+      <c r="Z61" s="115"/>
+      <c r="AA61" s="118"/>
+      <c r="AB61" s="118"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="10"/>
-      <c r="AE61" s="191"/>
-      <c r="AF61" s="192"/>
-      <c r="AG61" s="192"/>
-      <c r="AH61" s="192"/>
-      <c r="AI61" s="192"/>
-      <c r="AJ61" s="193"/>
+      <c r="AE61" s="189"/>
+      <c r="AF61" s="190"/>
+      <c r="AG61" s="190"/>
+      <c r="AH61" s="190"/>
+      <c r="AI61" s="190"/>
+      <c r="AJ61" s="191"/>
     </row>
     <row r="62" spans="1:37" customHeight="1" ht="15">
-      <c r="A62" s="241"/>
-      <c r="B62" s="241"/>
+      <c r="A62" s="239"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="62"/>
-      <c r="D62" s="235"/>
-      <c r="E62" s="235"/>
-      <c r="F62" s="235"/>
-      <c r="G62" s="235"/>
-      <c r="H62" s="235"/>
+      <c r="D62" s="233"/>
+      <c r="E62" s="233"/>
+      <c r="F62" s="233"/>
+      <c r="G62" s="233"/>
+      <c r="H62" s="233"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -5634,7 +5544,7 @@
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R62" s="14"/>
       <c r="S62" s="14"/>
@@ -5658,7 +5568,7 @@
     </row>
     <row r="63" spans="1:37" customHeight="1" ht="22">
       <c r="A63" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -5676,12 +5586,12 @@
       <c r="O63" s="48"/>
       <c r="P63" s="29"/>
       <c r="Q63" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R63" s="121"/>
-      <c r="S63" s="121"/>
-      <c r="T63" s="121"/>
-      <c r="U63" s="121"/>
+        <v>46</v>
+      </c>
+      <c r="R63" s="119"/>
+      <c r="S63" s="119"/>
+      <c r="T63" s="119"/>
+      <c r="U63" s="119"/>
       <c r="V63" s="44"/>
       <c r="W63" s="44"/>
       <c r="X63" s="44"/>
@@ -5689,178 +5599,178 @@
       <c r="Z63" s="51"/>
       <c r="AA63" s="14"/>
       <c r="AB63" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC63" s="28"/>
       <c r="AD63" s="33"/>
-      <c r="AE63" s="255" t="s">
+      <c r="AE63" s="253" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF63" s="254"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="251" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI63" s="251"/>
+      <c r="AJ63" s="252"/>
+    </row>
+    <row r="64" spans="1:37" customHeight="1" ht="15">
+      <c r="A64" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="AF63" s="256"/>
-      <c r="AG63" s="40"/>
-      <c r="AH63" s="253" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI63" s="253"/>
-      <c r="AJ63" s="254"/>
-    </row>
-    <row r="64" spans="1:37" customHeight="1" ht="15">
-      <c r="A64" s="238" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="238"/>
-      <c r="C64" s="238"/>
-      <c r="D64" s="238"/>
-      <c r="E64" s="238"/>
-      <c r="F64" s="238"/>
-      <c r="G64" s="238"/>
-      <c r="H64" s="238"/>
-      <c r="I64" s="238"/>
-      <c r="J64" s="238"/>
-      <c r="K64" s="238"/>
-      <c r="L64" s="238"/>
-      <c r="M64" s="238"/>
-      <c r="N64" s="238"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="236"/>
+      <c r="D64" s="236"/>
+      <c r="E64" s="236"/>
+      <c r="F64" s="236"/>
+      <c r="G64" s="236"/>
+      <c r="H64" s="236"/>
+      <c r="I64" s="236"/>
+      <c r="J64" s="236"/>
+      <c r="K64" s="236"/>
+      <c r="L64" s="236"/>
+      <c r="M64" s="236"/>
+      <c r="N64" s="236"/>
       <c r="O64" s="48"/>
       <c r="P64" s="29"/>
-      <c r="Q64" s="198" t="s">
-        <v>53</v>
-      </c>
-      <c r="R64" s="199"/>
-      <c r="S64" s="199"/>
-      <c r="T64" s="199"/>
-      <c r="U64" s="199"/>
-      <c r="V64" s="199"/>
-      <c r="W64" s="199"/>
-      <c r="X64" s="199"/>
-      <c r="Y64" s="199"/>
+      <c r="Q64" s="196" t="s">
+        <v>51</v>
+      </c>
+      <c r="R64" s="197"/>
+      <c r="S64" s="197"/>
+      <c r="T64" s="197"/>
+      <c r="U64" s="197"/>
+      <c r="V64" s="197"/>
+      <c r="W64" s="197"/>
+      <c r="X64" s="197"/>
+      <c r="Y64" s="197"/>
       <c r="Z64" s="34"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="24"/>
       <c r="AC64" s="25"/>
       <c r="AD64" s="35"/>
-      <c r="AE64" s="257"/>
-      <c r="AF64" s="258"/>
+      <c r="AE64" s="255"/>
+      <c r="AF64" s="256"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI64" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AI64" s="63" t="s">
-        <v>21</v>
-      </c>
       <c r="AJ64" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A65" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="239"/>
-      <c r="C65" s="239"/>
-      <c r="D65" s="239"/>
-      <c r="E65" s="239"/>
-      <c r="F65" s="239"/>
-      <c r="G65" s="239"/>
-      <c r="H65" s="239"/>
-      <c r="I65" s="239"/>
-      <c r="J65" s="239"/>
-      <c r="K65" s="239"/>
-      <c r="L65" s="239"/>
-      <c r="M65" s="239"/>
-      <c r="N65" s="239"/>
+      <c r="A65" s="237" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
+      <c r="D65" s="237"/>
+      <c r="E65" s="237"/>
+      <c r="F65" s="237"/>
+      <c r="G65" s="237"/>
+      <c r="H65" s="237"/>
+      <c r="I65" s="237"/>
+      <c r="J65" s="237"/>
+      <c r="K65" s="237"/>
+      <c r="L65" s="237"/>
+      <c r="M65" s="237"/>
+      <c r="N65" s="237"/>
       <c r="O65" s="48"/>
       <c r="P65" s="29"/>
-      <c r="Q65" s="200"/>
-      <c r="R65" s="201"/>
-      <c r="S65" s="201"/>
-      <c r="T65" s="201"/>
-      <c r="U65" s="201"/>
-      <c r="V65" s="201"/>
-      <c r="W65" s="201"/>
-      <c r="X65" s="201"/>
-      <c r="Y65" s="201"/>
+      <c r="Q65" s="198"/>
+      <c r="R65" s="199"/>
+      <c r="S65" s="199"/>
+      <c r="T65" s="199"/>
+      <c r="U65" s="199"/>
+      <c r="V65" s="199"/>
+      <c r="W65" s="199"/>
+      <c r="X65" s="199"/>
+      <c r="Y65" s="199"/>
       <c r="Z65" s="34"/>
       <c r="AA65" s="14"/>
-      <c r="AB65" s="247" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC65" s="248"/>
-      <c r="AD65" s="248"/>
-      <c r="AE65" s="248"/>
-      <c r="AF65" s="248"/>
-      <c r="AG65" s="249"/>
-      <c r="AH65" s="157"/>
-      <c r="AI65" s="157"/>
-      <c r="AJ65" s="159"/>
+      <c r="AB65" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC65" s="246"/>
+      <c r="AD65" s="246"/>
+      <c r="AE65" s="246"/>
+      <c r="AF65" s="246"/>
+      <c r="AG65" s="247"/>
+      <c r="AH65" s="155"/>
+      <c r="AI65" s="155"/>
+      <c r="AJ65" s="157"/>
     </row>
     <row r="66" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A66" s="240" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="240"/>
-      <c r="C66" s="240"/>
-      <c r="D66" s="240"/>
-      <c r="E66" s="240"/>
-      <c r="F66" s="240"/>
-      <c r="G66" s="240"/>
-      <c r="H66" s="240"/>
-      <c r="I66" s="240"/>
-      <c r="J66" s="240"/>
-      <c r="K66" s="240"/>
-      <c r="L66" s="240"/>
-      <c r="M66" s="240"/>
-      <c r="N66" s="240"/>
+      <c r="A66" s="238" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="238"/>
+      <c r="C66" s="238"/>
+      <c r="D66" s="238"/>
+      <c r="E66" s="238"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="238"/>
+      <c r="H66" s="238"/>
+      <c r="I66" s="238"/>
+      <c r="J66" s="238"/>
+      <c r="K66" s="238"/>
+      <c r="L66" s="238"/>
+      <c r="M66" s="238"/>
+      <c r="N66" s="238"/>
       <c r="O66" s="48"/>
       <c r="P66" s="29"/>
-      <c r="Q66" s="200"/>
-      <c r="R66" s="201"/>
-      <c r="S66" s="201"/>
-      <c r="T66" s="201"/>
-      <c r="U66" s="201"/>
-      <c r="V66" s="201"/>
-      <c r="W66" s="201"/>
-      <c r="X66" s="201"/>
-      <c r="Y66" s="201"/>
+      <c r="Q66" s="198"/>
+      <c r="R66" s="199"/>
+      <c r="S66" s="199"/>
+      <c r="T66" s="199"/>
+      <c r="U66" s="199"/>
+      <c r="V66" s="199"/>
+      <c r="W66" s="199"/>
+      <c r="X66" s="199"/>
+      <c r="Y66" s="199"/>
       <c r="Z66" s="34"/>
       <c r="AA66" s="14"/>
-      <c r="AB66" s="250"/>
-      <c r="AC66" s="251"/>
-      <c r="AD66" s="251"/>
-      <c r="AE66" s="251"/>
-      <c r="AF66" s="251"/>
-      <c r="AG66" s="252"/>
-      <c r="AH66" s="158"/>
-      <c r="AI66" s="158"/>
-      <c r="AJ66" s="160"/>
+      <c r="AB66" s="248"/>
+      <c r="AC66" s="249"/>
+      <c r="AD66" s="249"/>
+      <c r="AE66" s="249"/>
+      <c r="AF66" s="249"/>
+      <c r="AG66" s="250"/>
+      <c r="AH66" s="156"/>
+      <c r="AI66" s="156"/>
+      <c r="AJ66" s="158"/>
     </row>
     <row r="67" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A67" s="186" t="s">
+      <c r="A67" s="184" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="235" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="43"/>
+      <c r="D67" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="237" t="s">
+      <c r="E67" s="192"/>
+      <c r="F67" s="192"/>
+      <c r="G67" s="192"/>
+      <c r="H67" s="192"/>
+      <c r="I67" s="192"/>
+      <c r="J67" s="192"/>
+      <c r="K67" s="192"/>
+      <c r="L67" s="192"/>
+      <c r="M67" s="192"/>
+      <c r="N67" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="194" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="194"/>
-      <c r="F67" s="194"/>
-      <c r="G67" s="194"/>
-      <c r="H67" s="194"/>
-      <c r="I67" s="194"/>
-      <c r="J67" s="194"/>
-      <c r="K67" s="194"/>
-      <c r="L67" s="194"/>
-      <c r="M67" s="194"/>
-      <c r="N67" s="190" t="s">
-        <v>61</v>
-      </c>
-      <c r="O67" s="190"/>
+      <c r="O67" s="188"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R67" s="14"/>
       <c r="S67" s="14"/>
@@ -5872,39 +5782,39 @@
       <c r="Y67" s="32"/>
       <c r="Z67" s="34"/>
       <c r="AA67" s="14"/>
-      <c r="AB67" s="195" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC67" s="196"/>
-      <c r="AD67" s="196"/>
-      <c r="AE67" s="196"/>
-      <c r="AF67" s="196"/>
-      <c r="AG67" s="196"/>
-      <c r="AH67" s="197"/>
-      <c r="AI67" s="197"/>
-      <c r="AJ67" s="167"/>
+      <c r="AB67" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC67" s="194"/>
+      <c r="AD67" s="194"/>
+      <c r="AE67" s="194"/>
+      <c r="AF67" s="194"/>
+      <c r="AG67" s="194"/>
+      <c r="AH67" s="195"/>
+      <c r="AI67" s="195"/>
+      <c r="AJ67" s="165"/>
     </row>
     <row r="68" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A68" s="186"/>
-      <c r="B68" s="237"/>
+      <c r="A68" s="184"/>
+      <c r="B68" s="235"/>
       <c r="C68" s="43"/>
-      <c r="D68" s="189" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="189"/>
-      <c r="F68" s="189"/>
-      <c r="G68" s="189"/>
-      <c r="H68" s="189"/>
-      <c r="I68" s="189"/>
-      <c r="J68" s="189"/>
-      <c r="K68" s="189"/>
-      <c r="L68" s="189"/>
-      <c r="M68" s="189"/>
-      <c r="N68" s="190"/>
-      <c r="O68" s="190"/>
+      <c r="D68" s="187" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="187"/>
+      <c r="F68" s="187"/>
+      <c r="G68" s="187"/>
+      <c r="H68" s="187"/>
+      <c r="I68" s="187"/>
+      <c r="J68" s="187"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="187"/>
+      <c r="M68" s="187"/>
+      <c r="N68" s="188"/>
+      <c r="O68" s="188"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
@@ -5916,41 +5826,41 @@
       <c r="Y68" s="32"/>
       <c r="Z68" s="34"/>
       <c r="AA68" s="14"/>
-      <c r="AB68" s="195"/>
-      <c r="AC68" s="196"/>
-      <c r="AD68" s="196"/>
-      <c r="AE68" s="196"/>
-      <c r="AF68" s="196"/>
-      <c r="AG68" s="196"/>
-      <c r="AH68" s="197"/>
-      <c r="AI68" s="197"/>
-      <c r="AJ68" s="167"/>
+      <c r="AB68" s="193"/>
+      <c r="AC68" s="194"/>
+      <c r="AD68" s="194"/>
+      <c r="AE68" s="194"/>
+      <c r="AF68" s="194"/>
+      <c r="AG68" s="194"/>
+      <c r="AH68" s="195"/>
+      <c r="AI68" s="195"/>
+      <c r="AJ68" s="165"/>
     </row>
     <row r="69" spans="1:37" customHeight="1" ht="18">
-      <c r="A69" s="186" t="s">
+      <c r="A69" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="234" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="124"/>
+      <c r="D69" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="236" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="126"/>
-      <c r="D69" s="188" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="188"/>
-      <c r="F69" s="188"/>
-      <c r="G69" s="188"/>
-      <c r="H69" s="188"/>
-      <c r="I69" s="188"/>
-      <c r="J69" s="188"/>
-      <c r="K69" s="188"/>
-      <c r="L69" s="188"/>
-      <c r="M69" s="188"/>
+      <c r="E69" s="186"/>
+      <c r="F69" s="186"/>
+      <c r="G69" s="186"/>
+      <c r="H69" s="186"/>
+      <c r="I69" s="186"/>
+      <c r="J69" s="186"/>
+      <c r="K69" s="186"/>
+      <c r="L69" s="186"/>
+      <c r="M69" s="186"/>
       <c r="N69" s="49"/>
       <c r="O69" s="48"/>
       <c r="P69" s="29"/>
       <c r="Q69" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
@@ -5962,39 +5872,39 @@
       <c r="Y69" s="32"/>
       <c r="Z69" s="34"/>
       <c r="AA69" s="14"/>
-      <c r="AB69" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC69" s="196"/>
-      <c r="AD69" s="196"/>
-      <c r="AE69" s="196"/>
-      <c r="AF69" s="196"/>
-      <c r="AG69" s="196"/>
-      <c r="AH69" s="157"/>
-      <c r="AI69" s="157"/>
-      <c r="AJ69" s="159"/>
+      <c r="AB69" s="193" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC69" s="194"/>
+      <c r="AD69" s="194"/>
+      <c r="AE69" s="194"/>
+      <c r="AF69" s="194"/>
+      <c r="AG69" s="194"/>
+      <c r="AH69" s="155"/>
+      <c r="AI69" s="155"/>
+      <c r="AJ69" s="157"/>
     </row>
     <row r="70" spans="1:37" customHeight="1" ht="14.25">
-      <c r="A70" s="186"/>
-      <c r="B70" s="236"/>
-      <c r="C70" s="126"/>
-      <c r="D70" s="189" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="189"/>
-      <c r="F70" s="189"/>
-      <c r="G70" s="189"/>
-      <c r="H70" s="189"/>
-      <c r="I70" s="189"/>
-      <c r="J70" s="189"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="189"/>
-      <c r="M70" s="189"/>
+      <c r="A70" s="184"/>
+      <c r="B70" s="234"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="187"/>
+      <c r="F70" s="187"/>
+      <c r="G70" s="187"/>
+      <c r="H70" s="187"/>
+      <c r="I70" s="187"/>
+      <c r="J70" s="187"/>
+      <c r="K70" s="187"/>
+      <c r="L70" s="187"/>
+      <c r="M70" s="187"/>
       <c r="N70" s="39"/>
       <c r="O70" s="48"/>
       <c r="P70" s="29"/>
       <c r="Q70" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R70" s="14"/>
       <c r="S70" s="14"/>
@@ -6006,43 +5916,43 @@
       <c r="Y70" s="32"/>
       <c r="Z70" s="34"/>
       <c r="AA70" s="14"/>
-      <c r="AB70" s="195"/>
-      <c r="AC70" s="196"/>
-      <c r="AD70" s="196"/>
-      <c r="AE70" s="196"/>
-      <c r="AF70" s="196"/>
-      <c r="AG70" s="196"/>
-      <c r="AH70" s="158"/>
-      <c r="AI70" s="158"/>
-      <c r="AJ70" s="160"/>
+      <c r="AB70" s="193"/>
+      <c r="AC70" s="194"/>
+      <c r="AD70" s="194"/>
+      <c r="AE70" s="194"/>
+      <c r="AF70" s="194"/>
+      <c r="AG70" s="194"/>
+      <c r="AH70" s="156"/>
+      <c r="AI70" s="156"/>
+      <c r="AJ70" s="158"/>
     </row>
     <row r="71" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A71" s="187" t="s">
+      <c r="A71" s="185" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="235" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="235"/>
+      <c r="D71" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="237" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="237"/>
-      <c r="D71" s="194" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="194"/>
-      <c r="F71" s="194"/>
-      <c r="G71" s="194"/>
-      <c r="H71" s="194"/>
-      <c r="I71" s="194"/>
-      <c r="J71" s="194"/>
-      <c r="K71" s="194"/>
-      <c r="L71" s="194"/>
-      <c r="M71" s="194"/>
-      <c r="N71" s="190" t="s">
-        <v>61</v>
-      </c>
-      <c r="O71" s="190"/>
+      <c r="E71" s="192"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="192"/>
+      <c r="H71" s="192"/>
+      <c r="I71" s="192"/>
+      <c r="J71" s="192"/>
+      <c r="K71" s="192"/>
+      <c r="L71" s="192"/>
+      <c r="M71" s="192"/>
+      <c r="N71" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="O71" s="188"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
@@ -6054,39 +5964,39 @@
       <c r="Y71" s="32"/>
       <c r="Z71" s="34"/>
       <c r="AA71" s="14"/>
-      <c r="AB71" s="210" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC71" s="211"/>
-      <c r="AD71" s="211"/>
-      <c r="AE71" s="211"/>
-      <c r="AF71" s="211"/>
-      <c r="AG71" s="212"/>
-      <c r="AH71" s="218"/>
-      <c r="AI71" s="218"/>
-      <c r="AJ71" s="220"/>
+      <c r="AB71" s="208" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC71" s="209"/>
+      <c r="AD71" s="209"/>
+      <c r="AE71" s="209"/>
+      <c r="AF71" s="209"/>
+      <c r="AG71" s="210"/>
+      <c r="AH71" s="216"/>
+      <c r="AI71" s="216"/>
+      <c r="AJ71" s="218"/>
     </row>
     <row r="72" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A72" s="187"/>
-      <c r="B72" s="237"/>
-      <c r="C72" s="237"/>
-      <c r="D72" s="190" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72" s="190"/>
-      <c r="F72" s="190"/>
-      <c r="G72" s="190"/>
-      <c r="H72" s="190"/>
-      <c r="I72" s="190"/>
-      <c r="J72" s="190"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="190"/>
-      <c r="O72" s="190"/>
+      <c r="A72" s="185"/>
+      <c r="B72" s="235"/>
+      <c r="C72" s="235"/>
+      <c r="D72" s="188" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="188"/>
+      <c r="F72" s="188"/>
+      <c r="G72" s="188"/>
+      <c r="H72" s="188"/>
+      <c r="I72" s="188"/>
+      <c r="J72" s="188"/>
+      <c r="K72" s="188"/>
+      <c r="L72" s="188"/>
+      <c r="M72" s="188"/>
+      <c r="N72" s="188"/>
+      <c r="O72" s="188"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
@@ -6098,35 +6008,35 @@
       <c r="Y72" s="32"/>
       <c r="Z72" s="34"/>
       <c r="AA72" s="14"/>
-      <c r="AB72" s="213"/>
-      <c r="AC72" s="214"/>
-      <c r="AD72" s="214"/>
-      <c r="AE72" s="214"/>
-      <c r="AF72" s="214"/>
-      <c r="AG72" s="215"/>
-      <c r="AH72" s="219"/>
-      <c r="AI72" s="219"/>
-      <c r="AJ72" s="221"/>
+      <c r="AB72" s="211"/>
+      <c r="AC72" s="212"/>
+      <c r="AD72" s="212"/>
+      <c r="AE72" s="212"/>
+      <c r="AF72" s="212"/>
+      <c r="AG72" s="213"/>
+      <c r="AH72" s="217"/>
+      <c r="AI72" s="217"/>
+      <c r="AJ72" s="219"/>
     </row>
     <row r="73" spans="1:37" customHeight="1" ht="26.25">
-      <c r="A73" s="243"/>
-      <c r="B73" s="243"/>
-      <c r="C73" s="243"/>
-      <c r="D73" s="243"/>
-      <c r="E73" s="243"/>
-      <c r="F73" s="243"/>
-      <c r="G73" s="243"/>
-      <c r="H73" s="243"/>
-      <c r="I73" s="243"/>
-      <c r="J73" s="243"/>
-      <c r="K73" s="243"/>
-      <c r="L73" s="243"/>
+      <c r="A73" s="241"/>
+      <c r="B73" s="241"/>
+      <c r="C73" s="241"/>
+      <c r="D73" s="241"/>
+      <c r="E73" s="241"/>
+      <c r="F73" s="241"/>
+      <c r="G73" s="241"/>
+      <c r="H73" s="241"/>
+      <c r="I73" s="241"/>
+      <c r="J73" s="241"/>
+      <c r="K73" s="241"/>
+      <c r="L73" s="241"/>
       <c r="M73" s="64"/>
       <c r="N73" s="64"/>
       <c r="O73" s="48"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R73" s="14"/>
       <c r="S73" s="14"/>
@@ -6138,39 +6048,39 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="34"/>
       <c r="AA73" s="14"/>
-      <c r="AB73" s="216" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC73" s="217"/>
-      <c r="AD73" s="217"/>
-      <c r="AE73" s="217"/>
-      <c r="AF73" s="217"/>
-      <c r="AG73" s="217"/>
+      <c r="AB73" s="214" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC73" s="215"/>
+      <c r="AD73" s="215"/>
+      <c r="AE73" s="215"/>
+      <c r="AF73" s="215"/>
+      <c r="AG73" s="215"/>
       <c r="AH73" s="60"/>
       <c r="AI73" s="60"/>
       <c r="AJ73" s="61"/>
     </row>
     <row r="74" spans="1:37" customHeight="1" ht="16.5">
-      <c r="A74" s="202" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" s="202"/>
-      <c r="C74" s="202"/>
-      <c r="D74" s="202"/>
-      <c r="E74" s="202"/>
-      <c r="F74" s="202"/>
-      <c r="G74" s="202"/>
-      <c r="H74" s="202"/>
-      <c r="I74" s="202"/>
-      <c r="J74" s="202"/>
-      <c r="K74" s="202"/>
-      <c r="L74" s="202"/>
-      <c r="M74" s="202"/>
-      <c r="N74" s="202"/>
+      <c r="A74" s="200" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="200"/>
+      <c r="C74" s="200"/>
+      <c r="D74" s="200"/>
+      <c r="E74" s="200"/>
+      <c r="F74" s="200"/>
+      <c r="G74" s="200"/>
+      <c r="H74" s="200"/>
+      <c r="I74" s="200"/>
+      <c r="J74" s="200"/>
+      <c r="K74" s="200"/>
+      <c r="L74" s="200"/>
+      <c r="M74" s="200"/>
+      <c r="N74" s="200"/>
       <c r="O74" s="49"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R74" s="14"/>
       <c r="S74" s="14"/>
@@ -6182,37 +6092,37 @@
       <c r="Y74" s="32"/>
       <c r="Z74" s="34"/>
       <c r="AA74" s="14"/>
-      <c r="AB74" s="226" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC74" s="227"/>
-      <c r="AD74" s="227"/>
-      <c r="AE74" s="227"/>
-      <c r="AF74" s="227"/>
-      <c r="AG74" s="227"/>
-      <c r="AH74" s="224"/>
-      <c r="AI74" s="158"/>
-      <c r="AJ74" s="160"/>
+      <c r="AB74" s="224" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC74" s="225"/>
+      <c r="AD74" s="225"/>
+      <c r="AE74" s="225"/>
+      <c r="AF74" s="225"/>
+      <c r="AG74" s="225"/>
+      <c r="AH74" s="222"/>
+      <c r="AI74" s="156"/>
+      <c r="AJ74" s="158"/>
     </row>
     <row r="75" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A75" s="202"/>
-      <c r="B75" s="202"/>
-      <c r="C75" s="202"/>
-      <c r="D75" s="202"/>
-      <c r="E75" s="202"/>
-      <c r="F75" s="202"/>
-      <c r="G75" s="202"/>
-      <c r="H75" s="202"/>
-      <c r="I75" s="202"/>
-      <c r="J75" s="202"/>
-      <c r="K75" s="202"/>
-      <c r="L75" s="202"/>
-      <c r="M75" s="202"/>
-      <c r="N75" s="202"/>
+      <c r="A75" s="200"/>
+      <c r="B75" s="200"/>
+      <c r="C75" s="200"/>
+      <c r="D75" s="200"/>
+      <c r="E75" s="200"/>
+      <c r="F75" s="200"/>
+      <c r="G75" s="200"/>
+      <c r="H75" s="200"/>
+      <c r="I75" s="200"/>
+      <c r="J75" s="200"/>
+      <c r="K75" s="200"/>
+      <c r="L75" s="200"/>
+      <c r="M75" s="200"/>
+      <c r="N75" s="200"/>
       <c r="O75" s="49"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R75" s="14"/>
       <c r="S75" s="14"/>
@@ -6224,37 +6134,37 @@
       <c r="Y75" s="32"/>
       <c r="Z75" s="34"/>
       <c r="AA75" s="14"/>
-      <c r="AB75" s="226"/>
-      <c r="AC75" s="227"/>
-      <c r="AD75" s="227"/>
-      <c r="AE75" s="227"/>
-      <c r="AF75" s="227"/>
-      <c r="AG75" s="227"/>
-      <c r="AH75" s="225"/>
-      <c r="AI75" s="158"/>
-      <c r="AJ75" s="160"/>
+      <c r="AB75" s="224"/>
+      <c r="AC75" s="225"/>
+      <c r="AD75" s="225"/>
+      <c r="AE75" s="225"/>
+      <c r="AF75" s="225"/>
+      <c r="AG75" s="225"/>
+      <c r="AH75" s="223"/>
+      <c r="AI75" s="156"/>
+      <c r="AJ75" s="158"/>
     </row>
     <row r="76" spans="1:37" customHeight="1" ht="15.75">
       <c r="A76" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="124"/>
-      <c r="M76" s="124"/>
-      <c r="N76" s="124"/>
+        <v>84</v>
+      </c>
+      <c r="B76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="122"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="122"/>
+      <c r="J76" s="122"/>
+      <c r="K76" s="122"/>
+      <c r="L76" s="122"/>
+      <c r="M76" s="122"/>
+      <c r="N76" s="122"/>
       <c r="O76" s="49"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R76" s="14"/>
       <c r="S76" s="14"/>
@@ -6266,41 +6176,41 @@
       <c r="Y76" s="32"/>
       <c r="Z76" s="34"/>
       <c r="AA76" s="15"/>
-      <c r="AB76" s="226" t="s">
+      <c r="AB76" s="224" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC76" s="225"/>
+      <c r="AD76" s="225"/>
+      <c r="AE76" s="225"/>
+      <c r="AF76" s="225"/>
+      <c r="AG76" s="225"/>
+      <c r="AH76" s="226"/>
+      <c r="AI76" s="228"/>
+      <c r="AJ76" s="230"/>
+    </row>
+    <row r="77" spans="1:37" customHeight="1" ht="16.5">
+      <c r="A77" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="AC76" s="227"/>
-      <c r="AD76" s="227"/>
-      <c r="AE76" s="227"/>
-      <c r="AF76" s="227"/>
-      <c r="AG76" s="227"/>
-      <c r="AH76" s="228"/>
-      <c r="AI76" s="230"/>
-      <c r="AJ76" s="232"/>
-    </row>
-    <row r="77" spans="1:37" customHeight="1" ht="16.5">
-      <c r="A77" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="242" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="242"/>
-      <c r="D77" s="242"/>
-      <c r="E77" s="242"/>
-      <c r="F77" s="242"/>
-      <c r="G77" s="242"/>
-      <c r="H77" s="242"/>
-      <c r="I77" s="242"/>
-      <c r="J77" s="242"/>
-      <c r="K77" s="242"/>
-      <c r="L77" s="242"/>
-      <c r="M77" s="242"/>
-      <c r="N77" s="242"/>
+      <c r="C77" s="240"/>
+      <c r="D77" s="240"/>
+      <c r="E77" s="240"/>
+      <c r="F77" s="240"/>
+      <c r="G77" s="240"/>
+      <c r="H77" s="240"/>
+      <c r="I77" s="240"/>
+      <c r="J77" s="240"/>
+      <c r="K77" s="240"/>
+      <c r="L77" s="240"/>
+      <c r="M77" s="240"/>
+      <c r="N77" s="240"/>
       <c r="O77" s="49"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
@@ -6312,15 +6222,15 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="34"/>
       <c r="AA77" s="14"/>
-      <c r="AB77" s="226"/>
-      <c r="AC77" s="227"/>
-      <c r="AD77" s="227"/>
-      <c r="AE77" s="227"/>
-      <c r="AF77" s="227"/>
-      <c r="AG77" s="227"/>
-      <c r="AH77" s="229"/>
-      <c r="AI77" s="231"/>
-      <c r="AJ77" s="233"/>
+      <c r="AB77" s="224"/>
+      <c r="AC77" s="225"/>
+      <c r="AD77" s="225"/>
+      <c r="AE77" s="225"/>
+      <c r="AF77" s="225"/>
+      <c r="AG77" s="225"/>
+      <c r="AH77" s="227"/>
+      <c r="AI77" s="229"/>
+      <c r="AJ77" s="231"/>
     </row>
     <row r="78" spans="1:37" customHeight="1" ht="14.25">
       <c r="A78" s="49"/>
@@ -6340,7 +6250,7 @@
       <c r="O78" s="49"/>
       <c r="P78" s="29"/>
       <c r="Q78" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R78" s="14"/>
       <c r="S78" s="14"/>
@@ -6352,17 +6262,17 @@
       <c r="Y78" s="32"/>
       <c r="Z78" s="34"/>
       <c r="AA78" s="14"/>
-      <c r="AB78" s="206" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC78" s="207"/>
-      <c r="AD78" s="207"/>
-      <c r="AE78" s="207"/>
-      <c r="AF78" s="207"/>
-      <c r="AG78" s="207"/>
-      <c r="AH78" s="197"/>
-      <c r="AI78" s="197"/>
-      <c r="AJ78" s="167"/>
+      <c r="AB78" s="204" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC78" s="205"/>
+      <c r="AD78" s="205"/>
+      <c r="AE78" s="205"/>
+      <c r="AF78" s="205"/>
+      <c r="AG78" s="205"/>
+      <c r="AH78" s="195"/>
+      <c r="AI78" s="195"/>
+      <c r="AJ78" s="165"/>
     </row>
     <row r="79" spans="1:37" customHeight="1" ht="15.75">
       <c r="A79" s="39"/>
@@ -6382,7 +6292,7 @@
       <c r="O79" s="48"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
@@ -6394,15 +6304,15 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="34"/>
       <c r="AA79" s="14"/>
-      <c r="AB79" s="206"/>
-      <c r="AC79" s="207"/>
-      <c r="AD79" s="207"/>
-      <c r="AE79" s="207"/>
-      <c r="AF79" s="207"/>
-      <c r="AG79" s="207"/>
-      <c r="AH79" s="197"/>
-      <c r="AI79" s="197"/>
-      <c r="AJ79" s="167"/>
+      <c r="AB79" s="204"/>
+      <c r="AC79" s="205"/>
+      <c r="AD79" s="205"/>
+      <c r="AE79" s="205"/>
+      <c r="AF79" s="205"/>
+      <c r="AG79" s="205"/>
+      <c r="AH79" s="195"/>
+      <c r="AI79" s="195"/>
+      <c r="AJ79" s="165"/>
     </row>
     <row r="80" spans="1:37" customHeight="1" ht="15.75">
       <c r="B80" s="14"/>
@@ -6421,7 +6331,7 @@
       <c r="O80" s="14"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R80" s="14"/>
       <c r="S80" s="14"/>
@@ -6433,17 +6343,17 @@
       <c r="Y80" s="14"/>
       <c r="Z80" s="34"/>
       <c r="AA80" s="14"/>
-      <c r="AB80" s="206" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC80" s="207"/>
-      <c r="AD80" s="207"/>
-      <c r="AE80" s="207"/>
-      <c r="AF80" s="207"/>
-      <c r="AG80" s="207"/>
-      <c r="AH80" s="158"/>
-      <c r="AI80" s="158"/>
-      <c r="AJ80" s="160"/>
+      <c r="AB80" s="204" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC80" s="205"/>
+      <c r="AD80" s="205"/>
+      <c r="AE80" s="205"/>
+      <c r="AF80" s="205"/>
+      <c r="AG80" s="205"/>
+      <c r="AH80" s="156"/>
+      <c r="AI80" s="156"/>
+      <c r="AJ80" s="158"/>
     </row>
     <row r="81" spans="1:37" customHeight="1" ht="14.25">
       <c r="B81" s="47"/>
@@ -6462,7 +6372,7 @@
       <c r="O81" s="14"/>
       <c r="P81" s="29"/>
       <c r="Q81" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R81" s="14"/>
       <c r="S81" s="14"/>
@@ -6474,23 +6384,23 @@
       <c r="Y81" s="32"/>
       <c r="Z81" s="34"/>
       <c r="AA81" s="14"/>
-      <c r="AB81" s="206"/>
-      <c r="AC81" s="207"/>
-      <c r="AD81" s="207"/>
-      <c r="AE81" s="207"/>
-      <c r="AF81" s="207"/>
-      <c r="AG81" s="207"/>
-      <c r="AH81" s="158"/>
-      <c r="AI81" s="158"/>
-      <c r="AJ81" s="160"/>
+      <c r="AB81" s="204"/>
+      <c r="AC81" s="205"/>
+      <c r="AD81" s="205"/>
+      <c r="AE81" s="205"/>
+      <c r="AF81" s="205"/>
+      <c r="AG81" s="205"/>
+      <c r="AH81" s="156"/>
+      <c r="AI81" s="156"/>
+      <c r="AJ81" s="158"/>
     </row>
     <row r="82" spans="1:37" customHeight="1" ht="15">
-      <c r="B82" s="234"/>
-      <c r="C82" s="234"/>
-      <c r="D82" s="234"/>
-      <c r="E82" s="234"/>
-      <c r="F82" s="234"/>
-      <c r="G82" s="234"/>
+      <c r="B82" s="232"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="232"/>
+      <c r="E82" s="232"/>
+      <c r="F82" s="232"/>
+      <c r="G82" s="232"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -6501,7 +6411,7 @@
       <c r="O82" s="14"/>
       <c r="P82" s="29"/>
       <c r="Q82" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R82" s="14"/>
       <c r="S82" s="14"/>
@@ -6513,25 +6423,25 @@
       <c r="Y82" s="14"/>
       <c r="Z82" s="34"/>
       <c r="AA82" s="65"/>
-      <c r="AB82" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC82" s="207"/>
-      <c r="AD82" s="207"/>
-      <c r="AE82" s="207"/>
-      <c r="AF82" s="207"/>
-      <c r="AG82" s="207"/>
-      <c r="AH82" s="158"/>
-      <c r="AI82" s="158"/>
-      <c r="AJ82" s="160"/>
+      <c r="AB82" s="204" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC82" s="205"/>
+      <c r="AD82" s="205"/>
+      <c r="AE82" s="205"/>
+      <c r="AF82" s="205"/>
+      <c r="AG82" s="205"/>
+      <c r="AH82" s="156"/>
+      <c r="AI82" s="156"/>
+      <c r="AJ82" s="158"/>
     </row>
     <row r="83" spans="1:37" customHeight="1" ht="15.75">
-      <c r="B83" s="234"/>
-      <c r="C83" s="234"/>
-      <c r="D83" s="234"/>
-      <c r="E83" s="234"/>
-      <c r="F83" s="234"/>
-      <c r="G83" s="234"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="232"/>
+      <c r="G83" s="232"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -6542,7 +6452,7 @@
       <c r="O83" s="14"/>
       <c r="P83" s="29"/>
       <c r="Q83" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R83" s="14"/>
       <c r="S83" s="14"/>
@@ -6554,15 +6464,15 @@
       <c r="Y83" s="14"/>
       <c r="Z83" s="34"/>
       <c r="AA83" s="14"/>
-      <c r="AB83" s="208"/>
-      <c r="AC83" s="209"/>
-      <c r="AD83" s="209"/>
-      <c r="AE83" s="209"/>
-      <c r="AF83" s="209"/>
-      <c r="AG83" s="209"/>
-      <c r="AH83" s="222"/>
-      <c r="AI83" s="222"/>
-      <c r="AJ83" s="223"/>
+      <c r="AB83" s="206"/>
+      <c r="AC83" s="207"/>
+      <c r="AD83" s="207"/>
+      <c r="AE83" s="207"/>
+      <c r="AF83" s="207"/>
+      <c r="AG83" s="207"/>
+      <c r="AH83" s="220"/>
+      <c r="AI83" s="220"/>
+      <c r="AJ83" s="221"/>
     </row>
     <row r="84" spans="1:37" customHeight="1" ht="14.25">
       <c r="B84" s="9"/>
@@ -6581,7 +6491,7 @@
       <c r="O84" s="14"/>
       <c r="P84" s="29"/>
       <c r="Q84" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R84" s="14"/>
       <c r="S84" s="14"/>
@@ -6612,7 +6522,7 @@
       <c r="O85" s="14"/>
       <c r="P85" s="29"/>
       <c r="Q85" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R85" s="14"/>
       <c r="S85" s="14"/>
@@ -6624,8 +6534,8 @@
       <c r="Y85" s="14"/>
       <c r="Z85" s="34"/>
       <c r="AA85" s="14"/>
-      <c r="AB85" s="128" t="s">
-        <v>103</v>
+      <c r="AB85" s="126" t="s">
+        <v>101</v>
       </c>
       <c r="AI85" s="14"/>
       <c r="AJ85" s="42"/>
@@ -6647,7 +6557,7 @@
       <c r="O86" s="14"/>
       <c r="P86" s="29"/>
       <c r="Q86" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R86" s="14"/>
       <c r="S86" s="14"/>
@@ -6677,18 +6587,18 @@
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="29"/>
-      <c r="Q87" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="R87" s="140"/>
-      <c r="S87" s="140"/>
-      <c r="T87" s="140"/>
-      <c r="U87" s="140"/>
-      <c r="V87" s="140"/>
-      <c r="W87" s="140"/>
-      <c r="X87" s="140"/>
-      <c r="Y87" s="140"/>
-      <c r="Z87" s="141"/>
+      <c r="Q87" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="R87" s="138"/>
+      <c r="S87" s="138"/>
+      <c r="T87" s="138"/>
+      <c r="U87" s="138"/>
+      <c r="V87" s="138"/>
+      <c r="W87" s="138"/>
+      <c r="X87" s="138"/>
+      <c r="Y87" s="138"/>
+      <c r="Z87" s="139"/>
       <c r="AA87" s="14"/>
       <c r="AD87" s="23"/>
       <c r="AE87" s="23"/>
@@ -6713,19 +6623,19 @@
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="29"/>
-      <c r="Q88" s="139"/>
-      <c r="R88" s="140"/>
-      <c r="S88" s="140"/>
-      <c r="T88" s="140"/>
-      <c r="U88" s="140"/>
-      <c r="V88" s="140"/>
-      <c r="W88" s="140"/>
-      <c r="X88" s="140"/>
-      <c r="Y88" s="140"/>
-      <c r="Z88" s="141"/>
+      <c r="Q88" s="137"/>
+      <c r="R88" s="138"/>
+      <c r="S88" s="138"/>
+      <c r="T88" s="138"/>
+      <c r="U88" s="138"/>
+      <c r="V88" s="138"/>
+      <c r="W88" s="138"/>
+      <c r="X88" s="138"/>
+      <c r="Y88" s="138"/>
+      <c r="Z88" s="139"/>
       <c r="AA88" s="14"/>
       <c r="AC88" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AD88" s="42"/>
       <c r="AF88" s="62"/>
@@ -6749,7 +6659,7 @@
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R89" s="14"/>
       <c r="S89" s="14"/>
@@ -6770,7 +6680,7 @@
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="Q90" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R90" s="14"/>
       <c r="S90" s="14"/>
@@ -6782,8 +6692,8 @@
       <c r="Y90" s="14"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="14"/>
-      <c r="AB90" s="128" t="s">
-        <v>109</v>
+      <c r="AB90" s="126" t="s">
+        <v>107</v>
       </c>
       <c r="AD90" s="21"/>
       <c r="AE90" s="42"/>
@@ -6799,7 +6709,7 @@
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="Q91" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R91" s="14"/>
       <c r="S91" s="14"/>
@@ -6821,7 +6731,7 @@
     </row>
     <row r="92" spans="1:37" customHeight="1" ht="14.25">
       <c r="A92" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -6830,7 +6740,7 @@
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
       <c r="Q92" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
@@ -6846,7 +6756,7 @@
       <c r="AD92" s="21"/>
       <c r="AE92" s="21"/>
       <c r="AF92" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG92" s="21"/>
       <c r="AH92" s="21"/>

--- a/excel/form2excel.xlsx
+++ b/excel/form2excel.xlsx
@@ -37,7 +37,7 @@
     <t>Month Reporting</t>
   </si>
   <si>
-    <t>June</t>
+    <t>August</t>
   </si>
   <si>
     <t>Name of School</t>
@@ -166,6 +166,12 @@
     </r>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -173,12 +179,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Th</t>
   </si>
   <si>
     <t>ABSENT</t>
@@ -690,7 +690,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="94">
     <border/>
     <border>
       <left style="medium">
@@ -1068,20 +1068,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="dotted">
-        <color rgb="FF000000"/>
-      </diagonal>
     </border>
     <border diagonalUp="true" diagonalDown="false">
       <left style="thin">
@@ -1757,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="292">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2004,12 +1990,12 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2059,9 +2045,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2085,7 +2068,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2133,7 +2116,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="164" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="164" fillId="2" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -2148,27 +2131,27 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2178,28 +2161,28 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2235,24 +2218,24 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2274,7 +2257,7 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2304,7 +2287,7 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2349,7 +2332,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2376,22 +2359,22 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2406,15 +2389,15 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2436,19 +2419,19 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="165" fillId="2" borderId="71" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="165" fillId="2" borderId="70" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="87" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="16" numFmtId="165" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="87" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="9" fillId="2" borderId="71" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="9" fillId="2" borderId="70" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="72" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="71" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2496,31 +2479,31 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2529,6 +2512,9 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2544,52 +2530,52 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2598,19 +2584,19 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2619,22 +2605,19 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="93" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="93" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -3005,7 +2988,7 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="80" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="X41" sqref="X41"/>
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="10.28515625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3088,84 +3071,84 @@
       <c r="AJ1" s="19"/>
     </row>
     <row r="2" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
     </row>
     <row r="3" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="169"/>
     </row>
     <row r="4" spans="1:37" customHeight="1" ht="6.75">
       <c r="A4" s="52"/>
@@ -3248,43 +3231,43 @@
       <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="126">
         <v>400075</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
       <c r="I6" s="52"/>
       <c r="J6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="129"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="128"/>
       <c r="P6" s="52"/>
-      <c r="Q6" s="136" t="s">
+      <c r="Q6" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="127" t="s">
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="129"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="128"/>
       <c r="AD6" s="52"/>
       <c r="AE6" s="52"/>
       <c r="AF6" s="52"/>
@@ -3353,91 +3336,91 @@
       <c r="O8" s="69"/>
       <c r="R8" s="58"/>
       <c r="S8" s="58"/>
-      <c r="T8" s="131" t="s">
+      <c r="T8" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="180" t="s">
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Y8" s="181"/>
-      <c r="Z8" s="130" t="s">
+      <c r="Y8" s="180"/>
+      <c r="Z8" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="133" t="s">
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="135"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="134"/>
       <c r="AI8" s="58"/>
       <c r="AJ8" s="58"/>
     </row>
     <row r="9" spans="1:37" customHeight="1" ht="6"/>
     <row r="10" spans="1:37" customHeight="1" ht="20.25">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="167" t="s">
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="169"/>
-      <c r="AC10" s="182" t="s">
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="146" t="s">
+      <c r="AD10" s="181"/>
+      <c r="AE10" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="147"/>
-      <c r="AH10" s="147"/>
-      <c r="AI10" s="147"/>
-      <c r="AJ10" s="148"/>
+      <c r="AF10" s="146"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="146"/>
+      <c r="AI10" s="146"/>
+      <c r="AJ10" s="147"/>
     </row>
     <row r="11" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A11" s="174"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="70">
         <v>1</v>
       </c>
       <c r="E11" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="71">
         <v>6</v>
@@ -3449,10 +3432,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K11" s="71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L11" s="71">
         <v>13</v>
@@ -3464,10 +3447,10 @@
         <v>15</v>
       </c>
       <c r="O11" s="71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P11" s="71">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="71">
         <v>20</v>
@@ -3479,10 +3462,10 @@
         <v>22</v>
       </c>
       <c r="T11" s="71">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U11" s="71">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V11" s="71">
         <v>27</v>
@@ -3493,23 +3476,27 @@
       <c r="X11" s="70">
         <v>29</v>
       </c>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
+      <c r="Y11" s="71">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="71">
+        <v>31</v>
+      </c>
       <c r="AA11" s="71"/>
       <c r="AB11" s="72"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="151"/>
+      <c r="AC11" s="182"/>
+      <c r="AD11" s="182"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="149"/>
+      <c r="AI11" s="149"/>
+      <c r="AJ11" s="150"/>
     </row>
     <row r="12" spans="1:37" customHeight="1" ht="24.75">
-      <c r="A12" s="177"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="179"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="75" t="s">
         <v>17</v>
       </c>
@@ -3573,867 +3560,871 @@
       <c r="X12" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
+      <c r="Y12" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z12" s="76" t="s">
+        <v>19</v>
+      </c>
       <c r="AA12" s="79"/>
       <c r="AB12" s="77"/>
-      <c r="AC12" s="125" t="s">
+      <c r="AC12" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="AD12" s="125" t="s">
+      <c r="AD12" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="AE12" s="152"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="154"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="153"/>
     </row>
     <row r="13" spans="1:37" customHeight="1" ht="21.95">
       <c r="A13" s="80">
         <v>1</v>
       </c>
-      <c r="B13" s="267" t="s">
+      <c r="B13" s="266" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="268"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="279"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="277"/>
-      <c r="L13" s="277"/>
-      <c r="M13" s="280"/>
-      <c r="N13" s="281"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="278"/>
-      <c r="S13" s="279"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="280"/>
-      <c r="X13" s="281"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="274"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="277"/>
+      <c r="I13" s="278"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="279"/>
+      <c r="N13" s="280"/>
+      <c r="O13" s="276"/>
+      <c r="P13" s="276"/>
+      <c r="Q13" s="276"/>
+      <c r="R13" s="277"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="276"/>
+      <c r="U13" s="276"/>
+      <c r="V13" s="276"/>
+      <c r="W13" s="279"/>
+      <c r="X13" s="280"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="276"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
       <c r="AC13" s="57"/>
       <c r="AD13" s="23"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="161"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="159"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="160"/>
     </row>
     <row r="14" spans="1:37" customHeight="1" ht="21.95">
       <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="268" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="270"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="284"/>
-      <c r="H14" s="285"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="284"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="288"/>
-      <c r="O14" s="284"/>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="284"/>
-      <c r="R14" s="285"/>
-      <c r="S14" s="286"/>
-      <c r="T14" s="284"/>
-      <c r="U14" s="284"/>
-      <c r="V14" s="284"/>
-      <c r="W14" s="287"/>
-      <c r="X14" s="288"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="281"/>
+      <c r="E14" s="282"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="284"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="283"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
+      <c r="M14" s="286"/>
+      <c r="N14" s="287"/>
+      <c r="O14" s="283"/>
+      <c r="P14" s="283"/>
+      <c r="Q14" s="283"/>
+      <c r="R14" s="284"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="283"/>
+      <c r="V14" s="283"/>
+      <c r="W14" s="286"/>
+      <c r="X14" s="287"/>
+      <c r="Y14" s="283"/>
+      <c r="Z14" s="283"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="26"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="144"/>
-      <c r="AG14" s="144"/>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="144"/>
-      <c r="AJ14" s="145"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="143"/>
+      <c r="AJ14" s="144"/>
     </row>
     <row r="15" spans="1:37" customHeight="1" ht="21.95">
       <c r="A15" s="80">
         <v>3</v>
       </c>
-      <c r="B15" s="269" t="s">
+      <c r="B15" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="270"/>
-      <c r="D15" s="282"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="285"/>
-      <c r="I15" s="286"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284"/>
-      <c r="L15" s="284"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="288"/>
-      <c r="O15" s="284"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="284"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="286"/>
-      <c r="T15" s="284"/>
-      <c r="U15" s="284"/>
-      <c r="V15" s="284"/>
-      <c r="W15" s="287"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="281"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="284"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="283"/>
+      <c r="M15" s="286"/>
+      <c r="N15" s="287"/>
+      <c r="O15" s="283"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="283"/>
+      <c r="R15" s="284"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="283"/>
+      <c r="V15" s="283"/>
+      <c r="W15" s="286"/>
+      <c r="X15" s="287"/>
+      <c r="Y15" s="283"/>
+      <c r="Z15" s="283"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="26"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="144"/>
-      <c r="AJ15" s="145"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="144"/>
     </row>
     <row r="16" spans="1:37" customHeight="1" ht="21.95">
       <c r="A16" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="269" t="s">
+      <c r="B16" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="270"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="286"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="284"/>
-      <c r="M16" s="287"/>
-      <c r="N16" s="288"/>
-      <c r="O16" s="284"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="284"/>
-      <c r="R16" s="285"/>
-      <c r="S16" s="286"/>
-      <c r="T16" s="284"/>
-      <c r="U16" s="284"/>
-      <c r="V16" s="284"/>
-      <c r="W16" s="287"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="283"/>
+      <c r="G16" s="283"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="283"/>
+      <c r="L16" s="283"/>
+      <c r="M16" s="286"/>
+      <c r="N16" s="287"/>
+      <c r="O16" s="283"/>
+      <c r="P16" s="283"/>
+      <c r="Q16" s="283"/>
+      <c r="R16" s="284"/>
+      <c r="S16" s="285"/>
+      <c r="T16" s="283"/>
+      <c r="U16" s="283"/>
+      <c r="V16" s="283"/>
+      <c r="W16" s="286"/>
+      <c r="X16" s="287"/>
+      <c r="Y16" s="283"/>
+      <c r="Z16" s="283"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="26"/>
-      <c r="AE16" s="143"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="144"/>
-      <c r="AJ16" s="145"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="144"/>
     </row>
     <row r="17" spans="1:37" customHeight="1" ht="21.95">
       <c r="A17" s="80">
         <v>5</v>
       </c>
-      <c r="B17" s="269" t="s">
+      <c r="B17" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="270"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="284"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="285"/>
-      <c r="I17" s="286"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="284"/>
-      <c r="L17" s="284"/>
-      <c r="M17" s="287"/>
-      <c r="N17" s="288"/>
-      <c r="O17" s="284"/>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="284"/>
-      <c r="R17" s="285"/>
-      <c r="S17" s="286"/>
-      <c r="T17" s="284"/>
-      <c r="U17" s="284"/>
-      <c r="V17" s="284"/>
-      <c r="W17" s="287"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="281"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="283"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="283"/>
+      <c r="K17" s="283"/>
+      <c r="L17" s="283"/>
+      <c r="M17" s="286"/>
+      <c r="N17" s="287"/>
+      <c r="O17" s="283"/>
+      <c r="P17" s="283"/>
+      <c r="Q17" s="283"/>
+      <c r="R17" s="284"/>
+      <c r="S17" s="285"/>
+      <c r="T17" s="283"/>
+      <c r="U17" s="283"/>
+      <c r="V17" s="283"/>
+      <c r="W17" s="286"/>
+      <c r="X17" s="287"/>
+      <c r="Y17" s="283"/>
+      <c r="Z17" s="283"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="26"/>
-      <c r="AE17" s="143"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="144"/>
-      <c r="AJ17" s="145"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="143"/>
+      <c r="AJ17" s="144"/>
     </row>
     <row r="18" spans="1:37" customHeight="1" ht="21.95">
       <c r="A18" s="13">
         <v>6</v>
       </c>
-      <c r="B18" s="269" t="s">
+      <c r="B18" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="270"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="284"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="287"/>
-      <c r="N18" s="288"/>
-      <c r="O18" s="284"/>
-      <c r="P18" s="284"/>
-      <c r="Q18" s="284"/>
-      <c r="R18" s="285"/>
-      <c r="S18" s="286"/>
-      <c r="T18" s="284"/>
-      <c r="U18" s="284"/>
-      <c r="V18" s="284"/>
-      <c r="W18" s="287"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="281"/>
+      <c r="E18" s="282"/>
+      <c r="F18" s="283"/>
+      <c r="G18" s="283"/>
+      <c r="H18" s="284"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="283"/>
+      <c r="K18" s="283"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="286"/>
+      <c r="N18" s="287"/>
+      <c r="O18" s="283"/>
+      <c r="P18" s="283"/>
+      <c r="Q18" s="283"/>
+      <c r="R18" s="284"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="283"/>
+      <c r="U18" s="283"/>
+      <c r="V18" s="283"/>
+      <c r="W18" s="286"/>
+      <c r="X18" s="287"/>
+      <c r="Y18" s="283"/>
+      <c r="Z18" s="283"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="26"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="144"/>
-      <c r="AJ18" s="145"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AJ18" s="144"/>
     </row>
     <row r="19" spans="1:37" customHeight="1" ht="21.95">
       <c r="A19" s="80">
         <v>7</v>
       </c>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="270"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="285"/>
-      <c r="I19" s="286"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="287"/>
-      <c r="N19" s="288"/>
-      <c r="O19" s="284"/>
-      <c r="P19" s="284"/>
-      <c r="Q19" s="284"/>
-      <c r="R19" s="285"/>
-      <c r="S19" s="286"/>
-      <c r="T19" s="284"/>
-      <c r="U19" s="284"/>
-      <c r="V19" s="284"/>
-      <c r="W19" s="287"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="281"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="283"/>
+      <c r="G19" s="283"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="283"/>
+      <c r="L19" s="283"/>
+      <c r="M19" s="286"/>
+      <c r="N19" s="287"/>
+      <c r="O19" s="283"/>
+      <c r="P19" s="283"/>
+      <c r="Q19" s="283"/>
+      <c r="R19" s="284"/>
+      <c r="S19" s="285"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="283"/>
+      <c r="V19" s="283"/>
+      <c r="W19" s="286"/>
+      <c r="X19" s="287"/>
+      <c r="Y19" s="283"/>
+      <c r="Z19" s="283"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="26"/>
-      <c r="AE19" s="143"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="144"/>
-      <c r="AJ19" s="145"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="143"/>
+      <c r="AJ19" s="144"/>
     </row>
     <row r="20" spans="1:37" customHeight="1" ht="21.95">
       <c r="A20" s="13">
         <v>8</v>
       </c>
-      <c r="B20" s="269" t="s">
+      <c r="B20" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="270"/>
-      <c r="D20" s="282"/>
-      <c r="E20" s="283"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="285"/>
-      <c r="I20" s="286"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="287"/>
-      <c r="N20" s="288"/>
-      <c r="O20" s="284"/>
-      <c r="P20" s="284"/>
-      <c r="Q20" s="284"/>
-      <c r="R20" s="285"/>
-      <c r="S20" s="286"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="284"/>
-      <c r="V20" s="284"/>
-      <c r="W20" s="287"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="281"/>
+      <c r="E20" s="282"/>
+      <c r="F20" s="283"/>
+      <c r="G20" s="283"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="283"/>
+      <c r="K20" s="283"/>
+      <c r="L20" s="283"/>
+      <c r="M20" s="286"/>
+      <c r="N20" s="287"/>
+      <c r="O20" s="283"/>
+      <c r="P20" s="283"/>
+      <c r="Q20" s="283"/>
+      <c r="R20" s="284"/>
+      <c r="S20" s="285"/>
+      <c r="T20" s="283"/>
+      <c r="U20" s="283"/>
+      <c r="V20" s="283"/>
+      <c r="W20" s="286"/>
+      <c r="X20" s="287"/>
+      <c r="Y20" s="283"/>
+      <c r="Z20" s="283"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="26"/>
-      <c r="AE20" s="143"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="144"/>
-      <c r="AJ20" s="145"/>
+      <c r="AE20" s="142"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AJ20" s="144"/>
     </row>
     <row r="21" spans="1:37" customHeight="1" ht="21.95">
       <c r="A21" s="80">
         <v>9</v>
       </c>
-      <c r="B21" s="269" t="s">
+      <c r="B21" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="270"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="287"/>
-      <c r="N21" s="288"/>
-      <c r="O21" s="284"/>
-      <c r="P21" s="284"/>
-      <c r="Q21" s="284"/>
-      <c r="R21" s="285"/>
-      <c r="S21" s="286"/>
-      <c r="T21" s="284"/>
-      <c r="U21" s="284"/>
-      <c r="V21" s="284"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="282"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="284"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="283"/>
+      <c r="M21" s="286"/>
+      <c r="N21" s="287"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="283"/>
+      <c r="Q21" s="283"/>
+      <c r="R21" s="284"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="283"/>
+      <c r="V21" s="283"/>
+      <c r="W21" s="286"/>
+      <c r="X21" s="287"/>
+      <c r="Y21" s="283"/>
+      <c r="Z21" s="283"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="26"/>
-      <c r="AE21" s="143"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="145"/>
+      <c r="AE21" s="142"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="144"/>
     </row>
     <row r="22" spans="1:37" customHeight="1" ht="21.95">
       <c r="A22" s="13">
         <v>10</v>
       </c>
-      <c r="B22" s="269" t="s">
+      <c r="B22" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="270"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="284"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="286"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="284"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="287"/>
-      <c r="N22" s="288"/>
-      <c r="O22" s="284"/>
-      <c r="P22" s="284"/>
-      <c r="Q22" s="284"/>
-      <c r="R22" s="285"/>
-      <c r="S22" s="286"/>
-      <c r="T22" s="284"/>
-      <c r="U22" s="284"/>
-      <c r="V22" s="284"/>
-      <c r="W22" s="287"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="282"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="283"/>
+      <c r="H22" s="284"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="283"/>
+      <c r="K22" s="283"/>
+      <c r="L22" s="283"/>
+      <c r="M22" s="286"/>
+      <c r="N22" s="287"/>
+      <c r="O22" s="283"/>
+      <c r="P22" s="283"/>
+      <c r="Q22" s="283"/>
+      <c r="R22" s="284"/>
+      <c r="S22" s="285"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="283"/>
+      <c r="V22" s="283"/>
+      <c r="W22" s="286"/>
+      <c r="X22" s="287"/>
+      <c r="Y22" s="283"/>
+      <c r="Z22" s="283"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="26"/>
-      <c r="AE22" s="143"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="144"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="144"/>
-      <c r="AJ22" s="145"/>
+      <c r="AE22" s="142"/>
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="143"/>
+      <c r="AI22" s="143"/>
+      <c r="AJ22" s="144"/>
     </row>
     <row r="23" spans="1:37" customHeight="1" ht="21.95">
       <c r="A23" s="80"/>
-      <c r="B23" s="269"/>
-      <c r="C23" s="270"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="269"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="26"/>
-      <c r="AE23" s="143"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="144"/>
-      <c r="AJ23" s="145"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="143"/>
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="143"/>
+      <c r="AI23" s="143"/>
+      <c r="AJ23" s="144"/>
     </row>
     <row r="24" spans="1:37" customHeight="1" ht="21.95">
       <c r="A24" s="13"/>
-      <c r="B24" s="263"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="26"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="141"/>
-      <c r="AJ24" s="142"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="140"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="140"/>
+      <c r="AJ24" s="141"/>
     </row>
     <row r="25" spans="1:37" customHeight="1" ht="21.95">
       <c r="A25" s="13"/>
-      <c r="B25" s="263"/>
-      <c r="C25" s="264"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="26"/>
-      <c r="AE25" s="143"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="144"/>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="145"/>
+      <c r="AE25" s="142"/>
+      <c r="AF25" s="143"/>
+      <c r="AG25" s="143"/>
+      <c r="AH25" s="143"/>
+      <c r="AI25" s="143"/>
+      <c r="AJ25" s="144"/>
     </row>
     <row r="26" spans="1:37" customHeight="1" ht="21.95">
       <c r="A26" s="13"/>
-      <c r="B26" s="263"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="26"/>
-      <c r="AE26" s="143"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="144"/>
-      <c r="AJ26" s="145"/>
+      <c r="AE26" s="142"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="143"/>
+      <c r="AI26" s="143"/>
+      <c r="AJ26" s="144"/>
     </row>
     <row r="27" spans="1:37" customHeight="1" ht="21.95">
       <c r="A27" s="13"/>
-      <c r="B27" s="263"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="26"/>
-      <c r="AE27" s="143"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="144"/>
-      <c r="AJ27" s="145"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="143"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="143"/>
+      <c r="AJ27" s="144"/>
     </row>
     <row r="28" spans="1:37" customHeight="1" ht="21.95">
       <c r="A28" s="13"/>
-      <c r="B28" s="263"/>
-      <c r="C28" s="264"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="18"/>
-      <c r="AE28" s="143"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="144"/>
-      <c r="AJ28" s="145"/>
+      <c r="AE28" s="142"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="143"/>
+      <c r="AI28" s="143"/>
+      <c r="AJ28" s="144"/>
     </row>
     <row r="29" spans="1:37" customHeight="1" ht="21.95">
       <c r="A29" s="13"/>
-      <c r="B29" s="263"/>
-      <c r="C29" s="264"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="18"/>
-      <c r="AE29" s="143"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="144"/>
-      <c r="AH29" s="144"/>
-      <c r="AI29" s="144"/>
-      <c r="AJ29" s="145"/>
+      <c r="AE29" s="142"/>
+      <c r="AF29" s="143"/>
+      <c r="AG29" s="143"/>
+      <c r="AH29" s="143"/>
+      <c r="AI29" s="143"/>
+      <c r="AJ29" s="144"/>
     </row>
     <row r="30" spans="1:37" customHeight="1" ht="21.95">
       <c r="A30" s="13"/>
-      <c r="B30" s="263"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="18"/>
-      <c r="AE30" s="143"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="144"/>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="144"/>
-      <c r="AJ30" s="145"/>
+      <c r="AE30" s="142"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="143"/>
+      <c r="AJ30" s="144"/>
     </row>
     <row r="31" spans="1:37" customHeight="1" ht="21.95">
       <c r="A31" s="13"/>
-      <c r="B31" s="263"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="143"/>
-      <c r="AF31" s="144"/>
-      <c r="AG31" s="144"/>
-      <c r="AH31" s="144"/>
-      <c r="AI31" s="144"/>
-      <c r="AJ31" s="145"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="143"/>
+      <c r="AJ31" s="144"/>
     </row>
     <row r="32" spans="1:37" customHeight="1" ht="21.95">
       <c r="A32" s="13"/>
-      <c r="B32" s="263"/>
-      <c r="C32" s="264"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="18"/>
-      <c r="AE32" s="143"/>
-      <c r="AF32" s="144"/>
-      <c r="AG32" s="144"/>
-      <c r="AH32" s="144"/>
-      <c r="AI32" s="144"/>
-      <c r="AJ32" s="145"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AJ32" s="144"/>
     </row>
     <row r="33" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A33" s="94"/>
-      <c r="B33" s="265"/>
-      <c r="C33" s="266"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="163"/>
-      <c r="AG33" s="163"/>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="163"/>
-      <c r="AJ33" s="164"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="161"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="162"/>
+      <c r="AJ33" s="163"/>
     </row>
     <row r="34" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A34" s="257" t="s">
+      <c r="A34" s="256" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="258"/>
-      <c r="C34" s="259"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
       <c r="D34" s="75"/>
       <c r="E34" s="76"/>
       <c r="F34" s="76"/>
@@ -4459,1082 +4450,1082 @@
       <c r="Z34" s="76"/>
       <c r="AA34" s="79"/>
       <c r="AB34" s="79"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="106"/>
+      <c r="AC34" s="101"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="104"/>
+      <c r="AG34" s="104"/>
+      <c r="AH34" s="104"/>
+      <c r="AI34" s="104"/>
+      <c r="AJ34" s="105"/>
     </row>
     <row r="35" spans="1:37" customHeight="1" ht="21.95">
       <c r="A35" s="80">
         <v>1</v>
       </c>
-      <c r="B35" s="271" t="s">
+      <c r="B35" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="272"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="289"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="278"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="277"/>
-      <c r="K35" s="277"/>
-      <c r="L35" s="277"/>
-      <c r="M35" s="280"/>
-      <c r="N35" s="281"/>
-      <c r="O35" s="277"/>
-      <c r="P35" s="277"/>
-      <c r="Q35" s="277"/>
-      <c r="R35" s="278"/>
-      <c r="S35" s="279"/>
-      <c r="T35" s="277"/>
-      <c r="U35" s="277"/>
-      <c r="V35" s="277"/>
-      <c r="W35" s="280"/>
-      <c r="X35" s="281"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="288"/>
+      <c r="F35" s="289"/>
+      <c r="G35" s="289"/>
+      <c r="H35" s="277"/>
+      <c r="I35" s="278"/>
+      <c r="J35" s="276"/>
+      <c r="K35" s="276"/>
+      <c r="L35" s="276"/>
+      <c r="M35" s="279"/>
+      <c r="N35" s="280"/>
+      <c r="O35" s="276"/>
+      <c r="P35" s="276"/>
+      <c r="Q35" s="276"/>
+      <c r="R35" s="277"/>
+      <c r="S35" s="278"/>
+      <c r="T35" s="276"/>
+      <c r="U35" s="276"/>
+      <c r="V35" s="276"/>
+      <c r="W35" s="279"/>
+      <c r="X35" s="280"/>
+      <c r="Y35" s="276"/>
+      <c r="Z35" s="276"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
       <c r="AC35" s="57"/>
       <c r="AD35" s="23"/>
-      <c r="AE35" s="159"/>
-      <c r="AF35" s="160"/>
-      <c r="AG35" s="160"/>
-      <c r="AH35" s="160"/>
-      <c r="AI35" s="160"/>
-      <c r="AJ35" s="161"/>
+      <c r="AE35" s="158"/>
+      <c r="AF35" s="159"/>
+      <c r="AG35" s="159"/>
+      <c r="AH35" s="159"/>
+      <c r="AI35" s="159"/>
+      <c r="AJ35" s="160"/>
     </row>
     <row r="36" spans="1:37" customHeight="1" ht="21.95">
       <c r="A36" s="13">
         <v>2</v>
       </c>
-      <c r="B36" s="273" t="s">
+      <c r="B36" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="274"/>
-      <c r="D36" s="291"/>
-      <c r="E36" s="292"/>
-      <c r="F36" s="284"/>
-      <c r="G36" s="284"/>
-      <c r="H36" s="285"/>
-      <c r="I36" s="286"/>
-      <c r="J36" s="284"/>
-      <c r="K36" s="284"/>
-      <c r="L36" s="284"/>
-      <c r="M36" s="287"/>
-      <c r="N36" s="288"/>
-      <c r="O36" s="284"/>
-      <c r="P36" s="284"/>
-      <c r="Q36" s="284"/>
-      <c r="R36" s="285"/>
-      <c r="S36" s="286"/>
-      <c r="T36" s="284"/>
-      <c r="U36" s="284"/>
-      <c r="V36" s="284"/>
-      <c r="W36" s="287"/>
-      <c r="X36" s="288"/>
-      <c r="Y36" s="86"/>
-      <c r="Z36" s="86"/>
-      <c r="AA36" s="87"/>
-      <c r="AB36" s="87"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="283"/>
+      <c r="G36" s="283"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="283"/>
+      <c r="K36" s="283"/>
+      <c r="L36" s="283"/>
+      <c r="M36" s="286"/>
+      <c r="N36" s="287"/>
+      <c r="O36" s="283"/>
+      <c r="P36" s="283"/>
+      <c r="Q36" s="283"/>
+      <c r="R36" s="284"/>
+      <c r="S36" s="285"/>
+      <c r="T36" s="283"/>
+      <c r="U36" s="283"/>
+      <c r="V36" s="283"/>
+      <c r="W36" s="286"/>
+      <c r="X36" s="287"/>
+      <c r="Y36" s="283"/>
+      <c r="Z36" s="283"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="26"/>
-      <c r="AE36" s="143"/>
-      <c r="AF36" s="144"/>
-      <c r="AG36" s="144"/>
-      <c r="AH36" s="144"/>
-      <c r="AI36" s="144"/>
-      <c r="AJ36" s="145"/>
+      <c r="AE36" s="142"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="143"/>
+      <c r="AI36" s="143"/>
+      <c r="AJ36" s="144"/>
     </row>
     <row r="37" spans="1:37" customHeight="1" ht="21.95">
       <c r="A37" s="13">
         <v>3</v>
       </c>
-      <c r="B37" s="273" t="s">
+      <c r="B37" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="274"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="292"/>
-      <c r="F37" s="284"/>
-      <c r="G37" s="284"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="284"/>
-      <c r="K37" s="284"/>
-      <c r="L37" s="284"/>
-      <c r="M37" s="287"/>
-      <c r="N37" s="288"/>
-      <c r="O37" s="284"/>
-      <c r="P37" s="284"/>
-      <c r="Q37" s="284"/>
-      <c r="R37" s="285"/>
-      <c r="S37" s="286"/>
-      <c r="T37" s="284"/>
-      <c r="U37" s="284"/>
-      <c r="V37" s="284"/>
-      <c r="W37" s="287"/>
-      <c r="X37" s="288"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="87"/>
-      <c r="AB37" s="87"/>
+      <c r="C37" s="273"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="283"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="284"/>
+      <c r="I37" s="285"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="283"/>
+      <c r="M37" s="286"/>
+      <c r="N37" s="287"/>
+      <c r="O37" s="283"/>
+      <c r="P37" s="283"/>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="284"/>
+      <c r="S37" s="285"/>
+      <c r="T37" s="283"/>
+      <c r="U37" s="283"/>
+      <c r="V37" s="283"/>
+      <c r="W37" s="286"/>
+      <c r="X37" s="287"/>
+      <c r="Y37" s="283"/>
+      <c r="Z37" s="283"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="86"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="26"/>
-      <c r="AE37" s="143"/>
-      <c r="AF37" s="144"/>
-      <c r="AG37" s="144"/>
-      <c r="AH37" s="144"/>
-      <c r="AI37" s="144"/>
-      <c r="AJ37" s="145"/>
+      <c r="AE37" s="142"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="143"/>
+      <c r="AH37" s="143"/>
+      <c r="AI37" s="143"/>
+      <c r="AJ37" s="144"/>
     </row>
     <row r="38" spans="1:37" customHeight="1" ht="21.95">
       <c r="A38" s="13">
         <v>4</v>
       </c>
-      <c r="B38" s="273" t="s">
+      <c r="B38" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="274"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="292"/>
-      <c r="F38" s="284"/>
-      <c r="G38" s="284"/>
-      <c r="H38" s="285"/>
-      <c r="I38" s="286"/>
-      <c r="J38" s="284"/>
-      <c r="K38" s="284"/>
-      <c r="L38" s="284"/>
-      <c r="M38" s="287"/>
-      <c r="N38" s="288"/>
-      <c r="O38" s="284"/>
-      <c r="P38" s="284"/>
-      <c r="Q38" s="284"/>
-      <c r="R38" s="285"/>
-      <c r="S38" s="286"/>
-      <c r="T38" s="284"/>
-      <c r="U38" s="284"/>
-      <c r="V38" s="284"/>
-      <c r="W38" s="287"/>
-      <c r="X38" s="288"/>
-      <c r="Y38" s="86"/>
-      <c r="Z38" s="86"/>
-      <c r="AA38" s="87"/>
-      <c r="AB38" s="87"/>
+      <c r="C38" s="273"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="283"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="284"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="283"/>
+      <c r="L38" s="283"/>
+      <c r="M38" s="286"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="283"/>
+      <c r="P38" s="283"/>
+      <c r="Q38" s="283"/>
+      <c r="R38" s="284"/>
+      <c r="S38" s="285"/>
+      <c r="T38" s="283"/>
+      <c r="U38" s="283"/>
+      <c r="V38" s="283"/>
+      <c r="W38" s="286"/>
+      <c r="X38" s="287"/>
+      <c r="Y38" s="283"/>
+      <c r="Z38" s="283"/>
+      <c r="AA38" s="86"/>
+      <c r="AB38" s="86"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="26"/>
-      <c r="AE38" s="143"/>
-      <c r="AF38" s="144"/>
-      <c r="AG38" s="144"/>
-      <c r="AH38" s="144"/>
-      <c r="AI38" s="144"/>
-      <c r="AJ38" s="145"/>
+      <c r="AE38" s="142"/>
+      <c r="AF38" s="143"/>
+      <c r="AG38" s="143"/>
+      <c r="AH38" s="143"/>
+      <c r="AI38" s="143"/>
+      <c r="AJ38" s="144"/>
     </row>
     <row r="39" spans="1:37" customHeight="1" ht="21.95">
       <c r="A39" s="13">
         <v>5</v>
       </c>
-      <c r="B39" s="273" t="s">
+      <c r="B39" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="274"/>
-      <c r="D39" s="291"/>
-      <c r="E39" s="292"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="284"/>
-      <c r="H39" s="285"/>
-      <c r="I39" s="286"/>
-      <c r="J39" s="284"/>
-      <c r="K39" s="284"/>
-      <c r="L39" s="284"/>
-      <c r="M39" s="287"/>
-      <c r="N39" s="288"/>
-      <c r="O39" s="284"/>
-      <c r="P39" s="284"/>
-      <c r="Q39" s="284"/>
-      <c r="R39" s="285"/>
-      <c r="S39" s="286"/>
-      <c r="T39" s="284"/>
-      <c r="U39" s="284"/>
-      <c r="V39" s="284"/>
-      <c r="W39" s="287"/>
-      <c r="X39" s="288"/>
-      <c r="Y39" s="86"/>
-      <c r="Z39" s="86"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
+      <c r="C39" s="273"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="291"/>
+      <c r="F39" s="283"/>
+      <c r="G39" s="283"/>
+      <c r="H39" s="284"/>
+      <c r="I39" s="285"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="283"/>
+      <c r="M39" s="286"/>
+      <c r="N39" s="287"/>
+      <c r="O39" s="283"/>
+      <c r="P39" s="283"/>
+      <c r="Q39" s="283"/>
+      <c r="R39" s="284"/>
+      <c r="S39" s="285"/>
+      <c r="T39" s="283"/>
+      <c r="U39" s="283"/>
+      <c r="V39" s="283"/>
+      <c r="W39" s="286"/>
+      <c r="X39" s="287"/>
+      <c r="Y39" s="283"/>
+      <c r="Z39" s="283"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="86"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="26"/>
-      <c r="AE39" s="143"/>
-      <c r="AF39" s="144"/>
-      <c r="AG39" s="144"/>
-      <c r="AH39" s="144"/>
-      <c r="AI39" s="144"/>
-      <c r="AJ39" s="145"/>
+      <c r="AE39" s="142"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="143"/>
+      <c r="AH39" s="143"/>
+      <c r="AI39" s="143"/>
+      <c r="AJ39" s="144"/>
     </row>
     <row r="40" spans="1:37" customHeight="1" ht="21.95">
       <c r="A40" s="13">
         <v>6</v>
       </c>
-      <c r="B40" s="273" t="s">
+      <c r="B40" s="272" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="274"/>
-      <c r="D40" s="291"/>
-      <c r="E40" s="292"/>
-      <c r="F40" s="284"/>
-      <c r="G40" s="284"/>
-      <c r="H40" s="285"/>
-      <c r="I40" s="286"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="284"/>
-      <c r="L40" s="284"/>
-      <c r="M40" s="287"/>
-      <c r="N40" s="288"/>
-      <c r="O40" s="284"/>
-      <c r="P40" s="284"/>
-      <c r="Q40" s="284"/>
-      <c r="R40" s="285"/>
-      <c r="S40" s="286"/>
-      <c r="T40" s="284"/>
-      <c r="U40" s="284"/>
-      <c r="V40" s="284"/>
-      <c r="W40" s="287"/>
-      <c r="X40" s="288"/>
-      <c r="Y40" s="86"/>
-      <c r="Z40" s="86"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="107"/>
+      <c r="C40" s="273"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="291"/>
+      <c r="F40" s="283"/>
+      <c r="G40" s="283"/>
+      <c r="H40" s="284"/>
+      <c r="I40" s="285"/>
+      <c r="J40" s="283"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="283"/>
+      <c r="M40" s="286"/>
+      <c r="N40" s="287"/>
+      <c r="O40" s="283"/>
+      <c r="P40" s="283"/>
+      <c r="Q40" s="283"/>
+      <c r="R40" s="284"/>
+      <c r="S40" s="285"/>
+      <c r="T40" s="283"/>
+      <c r="U40" s="283"/>
+      <c r="V40" s="283"/>
+      <c r="W40" s="286"/>
+      <c r="X40" s="287"/>
+      <c r="Y40" s="283"/>
+      <c r="Z40" s="283"/>
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="106"/>
       <c r="AD40" s="26"/>
-      <c r="AE40" s="143"/>
-      <c r="AF40" s="144"/>
-      <c r="AG40" s="144"/>
-      <c r="AH40" s="144"/>
-      <c r="AI40" s="144"/>
-      <c r="AJ40" s="145"/>
+      <c r="AE40" s="142"/>
+      <c r="AF40" s="143"/>
+      <c r="AG40" s="143"/>
+      <c r="AH40" s="143"/>
+      <c r="AI40" s="143"/>
+      <c r="AJ40" s="144"/>
     </row>
     <row r="41" spans="1:37" customHeight="1" ht="21.95">
       <c r="A41" s="13">
         <v>7</v>
       </c>
-      <c r="B41" s="273" t="s">
+      <c r="B41" s="272" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="274"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="292"/>
-      <c r="F41" s="284"/>
-      <c r="G41" s="284"/>
-      <c r="H41" s="285"/>
-      <c r="I41" s="286"/>
-      <c r="J41" s="284"/>
-      <c r="K41" s="284"/>
-      <c r="L41" s="284"/>
-      <c r="M41" s="287"/>
-      <c r="N41" s="288"/>
-      <c r="O41" s="284"/>
-      <c r="P41" s="284"/>
-      <c r="Q41" s="284"/>
-      <c r="R41" s="285"/>
-      <c r="S41" s="286"/>
-      <c r="T41" s="284"/>
-      <c r="U41" s="284"/>
-      <c r="V41" s="284"/>
-      <c r="W41" s="287"/>
-      <c r="X41" s="288"/>
-      <c r="Y41" s="86"/>
-      <c r="Z41" s="86"/>
-      <c r="AA41" s="87"/>
-      <c r="AB41" s="87"/>
+      <c r="C41" s="273"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="283"/>
+      <c r="G41" s="283"/>
+      <c r="H41" s="284"/>
+      <c r="I41" s="285"/>
+      <c r="J41" s="283"/>
+      <c r="K41" s="283"/>
+      <c r="L41" s="283"/>
+      <c r="M41" s="286"/>
+      <c r="N41" s="287"/>
+      <c r="O41" s="283"/>
+      <c r="P41" s="283"/>
+      <c r="Q41" s="283"/>
+      <c r="R41" s="284"/>
+      <c r="S41" s="285"/>
+      <c r="T41" s="283"/>
+      <c r="U41" s="283"/>
+      <c r="V41" s="283"/>
+      <c r="W41" s="286"/>
+      <c r="X41" s="287"/>
+      <c r="Y41" s="283"/>
+      <c r="Z41" s="283"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="86"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="26"/>
-      <c r="AE41" s="143"/>
-      <c r="AF41" s="144"/>
-      <c r="AG41" s="144"/>
-      <c r="AH41" s="144"/>
-      <c r="AI41" s="144"/>
-      <c r="AJ41" s="145"/>
+      <c r="AE41" s="142"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="144"/>
     </row>
     <row r="42" spans="1:37" customHeight="1" ht="21.95">
       <c r="A42" s="13"/>
-      <c r="B42" s="273"/>
-      <c r="C42" s="274"/>
+      <c r="B42" s="272"/>
+      <c r="C42" s="273"/>
       <c r="D42" s="55"/>
       <c r="E42" s="56"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="86"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="86"/>
-      <c r="AA42" s="87"/>
-      <c r="AB42" s="87"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="86"/>
+      <c r="AB42" s="86"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="26"/>
-      <c r="AE42" s="143"/>
-      <c r="AF42" s="144"/>
-      <c r="AG42" s="144"/>
-      <c r="AH42" s="144"/>
-      <c r="AI42" s="144"/>
-      <c r="AJ42" s="145"/>
+      <c r="AE42" s="142"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="143"/>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="143"/>
+      <c r="AJ42" s="144"/>
     </row>
     <row r="43" spans="1:37" customHeight="1" ht="21.95">
       <c r="A43" s="13"/>
-      <c r="B43" s="273"/>
-      <c r="C43" s="274"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="273"/>
       <c r="D43" s="55"/>
       <c r="E43" s="56"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="87"/>
-      <c r="AB43" s="87"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="86"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="26"/>
-      <c r="AE43" s="143"/>
-      <c r="AF43" s="144"/>
-      <c r="AG43" s="144"/>
-      <c r="AH43" s="144"/>
-      <c r="AI43" s="144"/>
-      <c r="AJ43" s="145"/>
+      <c r="AE43" s="142"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="143"/>
+      <c r="AH43" s="143"/>
+      <c r="AI43" s="143"/>
+      <c r="AJ43" s="144"/>
     </row>
     <row r="44" spans="1:37" customHeight="1" ht="21.95">
       <c r="A44" s="13"/>
-      <c r="B44" s="273"/>
-      <c r="C44" s="274"/>
+      <c r="B44" s="272"/>
+      <c r="C44" s="273"/>
       <c r="D44" s="55"/>
       <c r="E44" s="56"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="86"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="86"/>
-      <c r="Z44" s="86"/>
-      <c r="AA44" s="87"/>
-      <c r="AB44" s="87"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="86"/>
+      <c r="AB44" s="86"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="26"/>
-      <c r="AE44" s="143"/>
-      <c r="AF44" s="144"/>
-      <c r="AG44" s="144"/>
-      <c r="AH44" s="144"/>
-      <c r="AI44" s="144"/>
-      <c r="AJ44" s="145"/>
+      <c r="AE44" s="142"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="143"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="143"/>
+      <c r="AJ44" s="144"/>
     </row>
     <row r="45" spans="1:37" customHeight="1" ht="21.95">
       <c r="A45" s="13"/>
-      <c r="B45" s="273"/>
-      <c r="C45" s="274"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="273"/>
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="86"/>
-      <c r="AA45" s="87"/>
-      <c r="AB45" s="87"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="86"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="86"/>
+      <c r="AB45" s="86"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="26"/>
-      <c r="AE45" s="143"/>
-      <c r="AF45" s="144"/>
-      <c r="AG45" s="144"/>
-      <c r="AH45" s="144"/>
-      <c r="AI45" s="144"/>
-      <c r="AJ45" s="145"/>
+      <c r="AE45" s="142"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="143"/>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="143"/>
+      <c r="AJ45" s="144"/>
     </row>
     <row r="46" spans="1:37" customHeight="1" ht="21.95">
       <c r="A46" s="13"/>
-      <c r="B46" s="273"/>
-      <c r="C46" s="274"/>
+      <c r="B46" s="272"/>
+      <c r="C46" s="273"/>
       <c r="D46" s="55"/>
       <c r="E46" s="56"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="86"/>
-      <c r="V46" s="86"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="86"/>
-      <c r="Z46" s="86"/>
-      <c r="AA46" s="87"/>
-      <c r="AB46" s="87"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="86"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="86"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="143"/>
-      <c r="AF46" s="144"/>
-      <c r="AG46" s="144"/>
-      <c r="AH46" s="144"/>
-      <c r="AI46" s="144"/>
-      <c r="AJ46" s="145"/>
+      <c r="AE46" s="142"/>
+      <c r="AF46" s="143"/>
+      <c r="AG46" s="143"/>
+      <c r="AH46" s="143"/>
+      <c r="AI46" s="143"/>
+      <c r="AJ46" s="144"/>
     </row>
     <row r="47" spans="1:37" customHeight="1" ht="21.95">
       <c r="A47" s="13"/>
-      <c r="B47" s="273"/>
-      <c r="C47" s="274"/>
+      <c r="B47" s="272"/>
+      <c r="C47" s="273"/>
       <c r="D47" s="55"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="86"/>
-      <c r="V47" s="86"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="86"/>
-      <c r="Z47" s="86"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="26"/>
-      <c r="AE47" s="143"/>
-      <c r="AF47" s="144"/>
-      <c r="AG47" s="144"/>
-      <c r="AH47" s="144"/>
-      <c r="AI47" s="144"/>
-      <c r="AJ47" s="145"/>
+      <c r="AE47" s="142"/>
+      <c r="AF47" s="143"/>
+      <c r="AG47" s="143"/>
+      <c r="AH47" s="143"/>
+      <c r="AI47" s="143"/>
+      <c r="AJ47" s="144"/>
     </row>
     <row r="48" spans="1:37" customHeight="1" ht="21.95">
       <c r="A48" s="13"/>
-      <c r="B48" s="273"/>
-      <c r="C48" s="274"/>
+      <c r="B48" s="272"/>
+      <c r="C48" s="273"/>
       <c r="D48" s="55"/>
       <c r="E48" s="56"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="85"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="86"/>
-      <c r="V48" s="86"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="86"/>
-      <c r="Z48" s="86"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="86"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="86"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="26"/>
-      <c r="AE48" s="143"/>
-      <c r="AF48" s="144"/>
-      <c r="AG48" s="144"/>
-      <c r="AH48" s="144"/>
-      <c r="AI48" s="144"/>
-      <c r="AJ48" s="145"/>
+      <c r="AE48" s="142"/>
+      <c r="AF48" s="143"/>
+      <c r="AG48" s="143"/>
+      <c r="AH48" s="143"/>
+      <c r="AI48" s="143"/>
+      <c r="AJ48" s="144"/>
     </row>
     <row r="49" spans="1:37" customHeight="1" ht="21.95">
       <c r="A49" s="13"/>
-      <c r="B49" s="263"/>
-      <c r="C49" s="264"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="85"/>
-      <c r="T49" s="86"/>
-      <c r="U49" s="86"/>
-      <c r="V49" s="86"/>
-      <c r="W49" s="87"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="86"/>
-      <c r="AA49" s="87"/>
-      <c r="AB49" s="87"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="263"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="86"/>
+      <c r="X49" s="87"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="86"/>
+      <c r="AB49" s="86"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="26"/>
-      <c r="AE49" s="143"/>
-      <c r="AF49" s="144"/>
-      <c r="AG49" s="144"/>
-      <c r="AH49" s="144"/>
-      <c r="AI49" s="144"/>
-      <c r="AJ49" s="145"/>
+      <c r="AE49" s="142"/>
+      <c r="AF49" s="143"/>
+      <c r="AG49" s="143"/>
+      <c r="AH49" s="143"/>
+      <c r="AI49" s="143"/>
+      <c r="AJ49" s="144"/>
     </row>
     <row r="50" spans="1:37" customHeight="1" ht="21.95">
       <c r="A50" s="13"/>
-      <c r="B50" s="263"/>
-      <c r="C50" s="264"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="86"/>
-      <c r="U50" s="86"/>
-      <c r="V50" s="86"/>
-      <c r="W50" s="87"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="86"/>
-      <c r="Z50" s="86"/>
-      <c r="AA50" s="87"/>
-      <c r="AB50" s="87"/>
+      <c r="B50" s="262"/>
+      <c r="C50" s="263"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="87"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="85"/>
+      <c r="AA50" s="86"/>
+      <c r="AB50" s="86"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="26"/>
-      <c r="AE50" s="143"/>
-      <c r="AF50" s="144"/>
-      <c r="AG50" s="144"/>
-      <c r="AH50" s="144"/>
-      <c r="AI50" s="144"/>
-      <c r="AJ50" s="145"/>
+      <c r="AE50" s="142"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="143"/>
+      <c r="AI50" s="143"/>
+      <c r="AJ50" s="144"/>
     </row>
     <row r="51" spans="1:37" customHeight="1" ht="21.95">
       <c r="A51" s="13"/>
-      <c r="B51" s="263"/>
-      <c r="C51" s="264"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="86"/>
-      <c r="W51" s="87"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="86"/>
-      <c r="Z51" s="86"/>
-      <c r="AA51" s="87"/>
-      <c r="AB51" s="87"/>
+      <c r="B51" s="262"/>
+      <c r="C51" s="263"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="86"/>
+      <c r="X51" s="87"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="86"/>
+      <c r="AB51" s="86"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="26"/>
-      <c r="AE51" s="143"/>
-      <c r="AF51" s="144"/>
-      <c r="AG51" s="144"/>
-      <c r="AH51" s="144"/>
-      <c r="AI51" s="144"/>
-      <c r="AJ51" s="145"/>
+      <c r="AE51" s="142"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="143"/>
+      <c r="AH51" s="143"/>
+      <c r="AI51" s="143"/>
+      <c r="AJ51" s="144"/>
     </row>
     <row r="52" spans="1:37" customHeight="1" ht="21.95">
       <c r="A52" s="13"/>
-      <c r="B52" s="263"/>
-      <c r="C52" s="264"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="86"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="86"/>
-      <c r="Z52" s="86"/>
-      <c r="AA52" s="87"/>
-      <c r="AB52" s="87"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="87"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="86"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="26"/>
-      <c r="AE52" s="143"/>
-      <c r="AF52" s="144"/>
-      <c r="AG52" s="144"/>
-      <c r="AH52" s="144"/>
-      <c r="AI52" s="144"/>
-      <c r="AJ52" s="145"/>
+      <c r="AE52" s="142"/>
+      <c r="AF52" s="143"/>
+      <c r="AG52" s="143"/>
+      <c r="AH52" s="143"/>
+      <c r="AI52" s="143"/>
+      <c r="AJ52" s="144"/>
     </row>
     <row r="53" spans="1:37" customHeight="1" ht="21.95">
       <c r="A53" s="13"/>
-      <c r="B53" s="263"/>
-      <c r="C53" s="264"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="87"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="86"/>
-      <c r="Z53" s="86"/>
-      <c r="AA53" s="87"/>
-      <c r="AB53" s="87"/>
+      <c r="B53" s="262"/>
+      <c r="C53" s="263"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="87"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="86"/>
+      <c r="AB53" s="86"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="26"/>
-      <c r="AE53" s="143"/>
-      <c r="AF53" s="144"/>
-      <c r="AG53" s="144"/>
-      <c r="AH53" s="144"/>
-      <c r="AI53" s="144"/>
-      <c r="AJ53" s="145"/>
+      <c r="AE53" s="142"/>
+      <c r="AF53" s="143"/>
+      <c r="AG53" s="143"/>
+      <c r="AH53" s="143"/>
+      <c r="AI53" s="143"/>
+      <c r="AJ53" s="144"/>
     </row>
     <row r="54" spans="1:37" customHeight="1" ht="21.95">
       <c r="A54" s="13"/>
-      <c r="B54" s="263"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="86"/>
-      <c r="W54" s="87"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="86"/>
-      <c r="Z54" s="86"/>
-      <c r="AA54" s="87"/>
-      <c r="AB54" s="87"/>
+      <c r="B54" s="262"/>
+      <c r="C54" s="263"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
+      <c r="W54" s="86"/>
+      <c r="X54" s="87"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="85"/>
+      <c r="AA54" s="86"/>
+      <c r="AB54" s="86"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="26"/>
-      <c r="AE54" s="143"/>
-      <c r="AF54" s="144"/>
-      <c r="AG54" s="144"/>
-      <c r="AH54" s="144"/>
-      <c r="AI54" s="144"/>
-      <c r="AJ54" s="145"/>
+      <c r="AE54" s="142"/>
+      <c r="AF54" s="143"/>
+      <c r="AG54" s="143"/>
+      <c r="AH54" s="143"/>
+      <c r="AI54" s="143"/>
+      <c r="AJ54" s="144"/>
     </row>
     <row r="55" spans="1:37" customHeight="1" ht="21.95">
       <c r="A55" s="13"/>
-      <c r="B55" s="263"/>
-      <c r="C55" s="264"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="86"/>
-      <c r="W55" s="87"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="86"/>
-      <c r="Z55" s="86"/>
-      <c r="AA55" s="87"/>
-      <c r="AB55" s="87"/>
+      <c r="B55" s="262"/>
+      <c r="C55" s="263"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="86"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="86"/>
+      <c r="AB55" s="86"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="26"/>
-      <c r="AE55" s="143"/>
-      <c r="AF55" s="144"/>
-      <c r="AG55" s="144"/>
-      <c r="AH55" s="144"/>
-      <c r="AI55" s="144"/>
-      <c r="AJ55" s="145"/>
+      <c r="AE55" s="142"/>
+      <c r="AF55" s="143"/>
+      <c r="AG55" s="143"/>
+      <c r="AH55" s="143"/>
+      <c r="AI55" s="143"/>
+      <c r="AJ55" s="144"/>
     </row>
     <row r="56" spans="1:37" customHeight="1" ht="21.95">
       <c r="A56" s="13"/>
-      <c r="B56" s="263"/>
-      <c r="C56" s="264"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="86"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="86"/>
-      <c r="W56" s="87"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="86"/>
-      <c r="Z56" s="86"/>
-      <c r="AA56" s="87"/>
-      <c r="AB56" s="87"/>
+      <c r="B56" s="262"/>
+      <c r="C56" s="263"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
+      <c r="W56" s="86"/>
+      <c r="X56" s="87"/>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="85"/>
+      <c r="AA56" s="86"/>
+      <c r="AB56" s="86"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="26"/>
-      <c r="AE56" s="143"/>
-      <c r="AF56" s="144"/>
-      <c r="AG56" s="144"/>
-      <c r="AH56" s="144"/>
-      <c r="AI56" s="144"/>
-      <c r="AJ56" s="145"/>
+      <c r="AE56" s="142"/>
+      <c r="AF56" s="143"/>
+      <c r="AG56" s="143"/>
+      <c r="AH56" s="143"/>
+      <c r="AI56" s="143"/>
+      <c r="AJ56" s="144"/>
     </row>
     <row r="57" spans="1:37" customHeight="1" ht="21.95">
       <c r="A57" s="13"/>
-      <c r="B57" s="263"/>
-      <c r="C57" s="264"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="85"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="86"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="87"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="86"/>
-      <c r="Z57" s="86"/>
-      <c r="AA57" s="87"/>
-      <c r="AB57" s="87"/>
+      <c r="B57" s="262"/>
+      <c r="C57" s="263"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="86"/>
+      <c r="X57" s="87"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="86"/>
+      <c r="AB57" s="86"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="26"/>
-      <c r="AE57" s="143"/>
-      <c r="AF57" s="144"/>
-      <c r="AG57" s="144"/>
-      <c r="AH57" s="144"/>
-      <c r="AI57" s="144"/>
-      <c r="AJ57" s="145"/>
+      <c r="AE57" s="142"/>
+      <c r="AF57" s="143"/>
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="143"/>
+      <c r="AI57" s="143"/>
+      <c r="AJ57" s="144"/>
     </row>
     <row r="58" spans="1:37" customHeight="1" ht="21.95">
       <c r="A58" s="13"/>
-      <c r="B58" s="263"/>
-      <c r="C58" s="264"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
-      <c r="Q58" s="86"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="85"/>
-      <c r="T58" s="86"/>
-      <c r="U58" s="86"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="86"/>
-      <c r="Z58" s="86"/>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
+      <c r="B58" s="262"/>
+      <c r="C58" s="263"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="84"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="86"/>
+      <c r="X58" s="87"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="85"/>
+      <c r="AA58" s="86"/>
+      <c r="AB58" s="86"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="26"/>
-      <c r="AE58" s="143"/>
-      <c r="AF58" s="144"/>
-      <c r="AG58" s="144"/>
-      <c r="AH58" s="144"/>
-      <c r="AI58" s="144"/>
-      <c r="AJ58" s="145"/>
+      <c r="AE58" s="142"/>
+      <c r="AF58" s="143"/>
+      <c r="AG58" s="143"/>
+      <c r="AH58" s="143"/>
+      <c r="AI58" s="143"/>
+      <c r="AJ58" s="144"/>
     </row>
     <row r="59" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A59" s="94"/>
-      <c r="B59" s="265"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="97"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="99"/>
-      <c r="X59" s="95"/>
-      <c r="Y59" s="96"/>
-      <c r="Z59" s="96"/>
-      <c r="AA59" s="99"/>
-      <c r="AB59" s="99"/>
-      <c r="AC59" s="100"/>
-      <c r="AD59" s="101"/>
-      <c r="AE59" s="162"/>
-      <c r="AF59" s="163"/>
-      <c r="AG59" s="163"/>
-      <c r="AH59" s="163"/>
-      <c r="AI59" s="163"/>
-      <c r="AJ59" s="164"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="264"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="97"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="98"/>
+      <c r="X59" s="94"/>
+      <c r="Y59" s="95"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="98"/>
+      <c r="AB59" s="98"/>
+      <c r="AC59" s="99"/>
+      <c r="AD59" s="100"/>
+      <c r="AE59" s="161"/>
+      <c r="AF59" s="162"/>
+      <c r="AG59" s="162"/>
+      <c r="AH59" s="162"/>
+      <c r="AI59" s="162"/>
+      <c r="AJ59" s="163"/>
     </row>
     <row r="60" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A60" s="260" t="s">
+      <c r="A60" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="261"/>
-      <c r="C60" s="262"/>
+      <c r="B60" s="260"/>
+      <c r="C60" s="261"/>
       <c r="D60" s="80"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="110"/>
-      <c r="L60" s="110"/>
-      <c r="M60" s="113"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="112"/>
       <c r="N60" s="80"/>
-      <c r="O60" s="110"/>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="111"/>
-      <c r="S60" s="112"/>
-      <c r="T60" s="110"/>
-      <c r="U60" s="110"/>
-      <c r="V60" s="110"/>
-      <c r="W60" s="113"/>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="111"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="112"/>
       <c r="X60" s="80"/>
-      <c r="Y60" s="110"/>
-      <c r="Z60" s="110"/>
-      <c r="AA60" s="113"/>
-      <c r="AB60" s="113"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="112"/>
+      <c r="AB60" s="112"/>
       <c r="AC60" s="57"/>
       <c r="AD60" s="23"/>
-      <c r="AE60" s="242"/>
-      <c r="AF60" s="243"/>
-      <c r="AG60" s="243"/>
-      <c r="AH60" s="243"/>
-      <c r="AI60" s="243"/>
-      <c r="AJ60" s="244"/>
+      <c r="AE60" s="241"/>
+      <c r="AF60" s="242"/>
+      <c r="AG60" s="242"/>
+      <c r="AH60" s="242"/>
+      <c r="AI60" s="242"/>
+      <c r="AJ60" s="243"/>
     </row>
     <row r="61" spans="1:37" customHeight="1" ht="21.95">
-      <c r="A61" s="201" t="s">
+      <c r="A61" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="202"/>
-      <c r="C61" s="203"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="115"/>
-      <c r="U61" s="115"/>
-      <c r="V61" s="115"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="114"/>
-      <c r="Y61" s="115"/>
-      <c r="Z61" s="115"/>
-      <c r="AA61" s="118"/>
-      <c r="AB61" s="118"/>
+      <c r="B61" s="201"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="117"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="114"/>
+      <c r="P61" s="114"/>
+      <c r="Q61" s="114"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="114"/>
+      <c r="U61" s="114"/>
+      <c r="V61" s="114"/>
+      <c r="W61" s="117"/>
+      <c r="X61" s="113"/>
+      <c r="Y61" s="114"/>
+      <c r="Z61" s="114"/>
+      <c r="AA61" s="117"/>
+      <c r="AB61" s="117"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="10"/>
-      <c r="AE61" s="189"/>
-      <c r="AF61" s="190"/>
-      <c r="AG61" s="190"/>
-      <c r="AH61" s="190"/>
-      <c r="AI61" s="190"/>
-      <c r="AJ61" s="191"/>
+      <c r="AE61" s="188"/>
+      <c r="AF61" s="189"/>
+      <c r="AG61" s="189"/>
+      <c r="AH61" s="189"/>
+      <c r="AI61" s="189"/>
+      <c r="AJ61" s="190"/>
     </row>
     <row r="62" spans="1:37" customHeight="1" ht="15">
-      <c r="A62" s="239"/>
-      <c r="B62" s="239"/>
+      <c r="A62" s="238"/>
+      <c r="B62" s="238"/>
       <c r="C62" s="62"/>
-      <c r="D62" s="233"/>
-      <c r="E62" s="233"/>
-      <c r="F62" s="233"/>
-      <c r="G62" s="233"/>
-      <c r="H62" s="233"/>
+      <c r="D62" s="232"/>
+      <c r="E62" s="232"/>
+      <c r="F62" s="232"/>
+      <c r="G62" s="232"/>
+      <c r="H62" s="232"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -5588,10 +5579,10 @@
       <c r="Q63" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R63" s="119"/>
-      <c r="S63" s="119"/>
-      <c r="T63" s="119"/>
-      <c r="U63" s="119"/>
+      <c r="R63" s="118"/>
+      <c r="S63" s="118"/>
+      <c r="T63" s="118"/>
+      <c r="U63" s="118"/>
       <c r="V63" s="44"/>
       <c r="W63" s="44"/>
       <c r="X63" s="44"/>
@@ -5603,171 +5594,171 @@
       </c>
       <c r="AC63" s="28"/>
       <c r="AD63" s="33"/>
-      <c r="AE63" s="253" t="s">
+      <c r="AE63" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="AF63" s="254"/>
+      <c r="AF63" s="253"/>
       <c r="AG63" s="40"/>
-      <c r="AH63" s="251" t="s">
+      <c r="AH63" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="AI63" s="251"/>
-      <c r="AJ63" s="252"/>
+      <c r="AI63" s="250"/>
+      <c r="AJ63" s="251"/>
     </row>
     <row r="64" spans="1:37" customHeight="1" ht="15">
-      <c r="A64" s="236" t="s">
+      <c r="A64" s="235" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="236"/>
-      <c r="C64" s="236"/>
-      <c r="D64" s="236"/>
-      <c r="E64" s="236"/>
-      <c r="F64" s="236"/>
-      <c r="G64" s="236"/>
-      <c r="H64" s="236"/>
-      <c r="I64" s="236"/>
-      <c r="J64" s="236"/>
-      <c r="K64" s="236"/>
-      <c r="L64" s="236"/>
-      <c r="M64" s="236"/>
-      <c r="N64" s="236"/>
+      <c r="B64" s="235"/>
+      <c r="C64" s="235"/>
+      <c r="D64" s="235"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="235"/>
+      <c r="G64" s="235"/>
+      <c r="H64" s="235"/>
+      <c r="I64" s="235"/>
+      <c r="J64" s="235"/>
+      <c r="K64" s="235"/>
+      <c r="L64" s="235"/>
+      <c r="M64" s="235"/>
+      <c r="N64" s="235"/>
       <c r="O64" s="48"/>
       <c r="P64" s="29"/>
-      <c r="Q64" s="196" t="s">
+      <c r="Q64" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="R64" s="197"/>
-      <c r="S64" s="197"/>
-      <c r="T64" s="197"/>
-      <c r="U64" s="197"/>
-      <c r="V64" s="197"/>
-      <c r="W64" s="197"/>
-      <c r="X64" s="197"/>
-      <c r="Y64" s="197"/>
+      <c r="R64" s="196"/>
+      <c r="S64" s="196"/>
+      <c r="T64" s="196"/>
+      <c r="U64" s="196"/>
+      <c r="V64" s="196"/>
+      <c r="W64" s="196"/>
+      <c r="X64" s="196"/>
+      <c r="Y64" s="196"/>
       <c r="Z64" s="34"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="24"/>
       <c r="AC64" s="25"/>
       <c r="AD64" s="35"/>
-      <c r="AE64" s="255"/>
-      <c r="AF64" s="256"/>
+      <c r="AE64" s="254"/>
+      <c r="AF64" s="255"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI64" s="63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ64" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="237"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="237"/>
-      <c r="I65" s="237"/>
-      <c r="J65" s="237"/>
-      <c r="K65" s="237"/>
-      <c r="L65" s="237"/>
-      <c r="M65" s="237"/>
-      <c r="N65" s="237"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="236"/>
+      <c r="D65" s="236"/>
+      <c r="E65" s="236"/>
+      <c r="F65" s="236"/>
+      <c r="G65" s="236"/>
+      <c r="H65" s="236"/>
+      <c r="I65" s="236"/>
+      <c r="J65" s="236"/>
+      <c r="K65" s="236"/>
+      <c r="L65" s="236"/>
+      <c r="M65" s="236"/>
+      <c r="N65" s="236"/>
       <c r="O65" s="48"/>
       <c r="P65" s="29"/>
-      <c r="Q65" s="198"/>
-      <c r="R65" s="199"/>
-      <c r="S65" s="199"/>
-      <c r="T65" s="199"/>
-      <c r="U65" s="199"/>
-      <c r="V65" s="199"/>
-      <c r="W65" s="199"/>
-      <c r="X65" s="199"/>
-      <c r="Y65" s="199"/>
+      <c r="Q65" s="197"/>
+      <c r="R65" s="198"/>
+      <c r="S65" s="198"/>
+      <c r="T65" s="198"/>
+      <c r="U65" s="198"/>
+      <c r="V65" s="198"/>
+      <c r="W65" s="198"/>
+      <c r="X65" s="198"/>
+      <c r="Y65" s="198"/>
       <c r="Z65" s="34"/>
       <c r="AA65" s="14"/>
-      <c r="AB65" s="245" t="s">
+      <c r="AB65" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="AC65" s="246"/>
-      <c r="AD65" s="246"/>
-      <c r="AE65" s="246"/>
-      <c r="AF65" s="246"/>
-      <c r="AG65" s="247"/>
-      <c r="AH65" s="155"/>
-      <c r="AI65" s="155"/>
-      <c r="AJ65" s="157"/>
+      <c r="AC65" s="245"/>
+      <c r="AD65" s="245"/>
+      <c r="AE65" s="245"/>
+      <c r="AF65" s="245"/>
+      <c r="AG65" s="246"/>
+      <c r="AH65" s="154"/>
+      <c r="AI65" s="154"/>
+      <c r="AJ65" s="156"/>
     </row>
     <row r="66" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A66" s="238" t="s">
+      <c r="A66" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="238"/>
-      <c r="C66" s="238"/>
-      <c r="D66" s="238"/>
-      <c r="E66" s="238"/>
-      <c r="F66" s="238"/>
-      <c r="G66" s="238"/>
-      <c r="H66" s="238"/>
-      <c r="I66" s="238"/>
-      <c r="J66" s="238"/>
-      <c r="K66" s="238"/>
-      <c r="L66" s="238"/>
-      <c r="M66" s="238"/>
-      <c r="N66" s="238"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="237"/>
+      <c r="D66" s="237"/>
+      <c r="E66" s="237"/>
+      <c r="F66" s="237"/>
+      <c r="G66" s="237"/>
+      <c r="H66" s="237"/>
+      <c r="I66" s="237"/>
+      <c r="J66" s="237"/>
+      <c r="K66" s="237"/>
+      <c r="L66" s="237"/>
+      <c r="M66" s="237"/>
+      <c r="N66" s="237"/>
       <c r="O66" s="48"/>
       <c r="P66" s="29"/>
-      <c r="Q66" s="198"/>
-      <c r="R66" s="199"/>
-      <c r="S66" s="199"/>
-      <c r="T66" s="199"/>
-      <c r="U66" s="199"/>
-      <c r="V66" s="199"/>
-      <c r="W66" s="199"/>
-      <c r="X66" s="199"/>
-      <c r="Y66" s="199"/>
+      <c r="Q66" s="197"/>
+      <c r="R66" s="198"/>
+      <c r="S66" s="198"/>
+      <c r="T66" s="198"/>
+      <c r="U66" s="198"/>
+      <c r="V66" s="198"/>
+      <c r="W66" s="198"/>
+      <c r="X66" s="198"/>
+      <c r="Y66" s="198"/>
       <c r="Z66" s="34"/>
       <c r="AA66" s="14"/>
-      <c r="AB66" s="248"/>
-      <c r="AC66" s="249"/>
-      <c r="AD66" s="249"/>
-      <c r="AE66" s="249"/>
-      <c r="AF66" s="249"/>
-      <c r="AG66" s="250"/>
-      <c r="AH66" s="156"/>
-      <c r="AI66" s="156"/>
-      <c r="AJ66" s="158"/>
+      <c r="AB66" s="247"/>
+      <c r="AC66" s="248"/>
+      <c r="AD66" s="248"/>
+      <c r="AE66" s="248"/>
+      <c r="AF66" s="248"/>
+      <c r="AG66" s="249"/>
+      <c r="AH66" s="155"/>
+      <c r="AI66" s="155"/>
+      <c r="AJ66" s="157"/>
     </row>
     <row r="67" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A67" s="184" t="s">
+      <c r="A67" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="235" t="s">
+      <c r="B67" s="234" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="43"/>
-      <c r="D67" s="192" t="s">
+      <c r="D67" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="192"/>
-      <c r="F67" s="192"/>
-      <c r="G67" s="192"/>
-      <c r="H67" s="192"/>
-      <c r="I67" s="192"/>
-      <c r="J67" s="192"/>
-      <c r="K67" s="192"/>
-      <c r="L67" s="192"/>
-      <c r="M67" s="192"/>
-      <c r="N67" s="188" t="s">
+      <c r="E67" s="191"/>
+      <c r="F67" s="191"/>
+      <c r="G67" s="191"/>
+      <c r="H67" s="191"/>
+      <c r="I67" s="191"/>
+      <c r="J67" s="191"/>
+      <c r="K67" s="191"/>
+      <c r="L67" s="191"/>
+      <c r="M67" s="191"/>
+      <c r="N67" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="O67" s="188"/>
+      <c r="O67" s="187"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="7" t="s">
         <v>60</v>
@@ -5782,36 +5773,36 @@
       <c r="Y67" s="32"/>
       <c r="Z67" s="34"/>
       <c r="AA67" s="14"/>
-      <c r="AB67" s="193" t="s">
+      <c r="AB67" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="AC67" s="194"/>
-      <c r="AD67" s="194"/>
-      <c r="AE67" s="194"/>
-      <c r="AF67" s="194"/>
-      <c r="AG67" s="194"/>
-      <c r="AH67" s="195"/>
-      <c r="AI67" s="195"/>
-      <c r="AJ67" s="165"/>
+      <c r="AC67" s="193"/>
+      <c r="AD67" s="193"/>
+      <c r="AE67" s="193"/>
+      <c r="AF67" s="193"/>
+      <c r="AG67" s="193"/>
+      <c r="AH67" s="194"/>
+      <c r="AI67" s="194"/>
+      <c r="AJ67" s="164"/>
     </row>
     <row r="68" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A68" s="184"/>
-      <c r="B68" s="235"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="234"/>
       <c r="C68" s="43"/>
-      <c r="D68" s="187" t="s">
+      <c r="D68" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="187"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
-      <c r="K68" s="187"/>
-      <c r="L68" s="187"/>
-      <c r="M68" s="187"/>
-      <c r="N68" s="188"/>
-      <c r="O68" s="188"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="186"/>
+      <c r="G68" s="186"/>
+      <c r="H68" s="186"/>
+      <c r="I68" s="186"/>
+      <c r="J68" s="186"/>
+      <c r="K68" s="186"/>
+      <c r="L68" s="186"/>
+      <c r="M68" s="186"/>
+      <c r="N68" s="187"/>
+      <c r="O68" s="187"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="7" t="s">
         <v>63</v>
@@ -5826,36 +5817,36 @@
       <c r="Y68" s="32"/>
       <c r="Z68" s="34"/>
       <c r="AA68" s="14"/>
-      <c r="AB68" s="193"/>
-      <c r="AC68" s="194"/>
-      <c r="AD68" s="194"/>
-      <c r="AE68" s="194"/>
-      <c r="AF68" s="194"/>
-      <c r="AG68" s="194"/>
-      <c r="AH68" s="195"/>
-      <c r="AI68" s="195"/>
-      <c r="AJ68" s="165"/>
+      <c r="AB68" s="192"/>
+      <c r="AC68" s="193"/>
+      <c r="AD68" s="193"/>
+      <c r="AE68" s="193"/>
+      <c r="AF68" s="193"/>
+      <c r="AG68" s="193"/>
+      <c r="AH68" s="194"/>
+      <c r="AI68" s="194"/>
+      <c r="AJ68" s="164"/>
     </row>
     <row r="69" spans="1:37" customHeight="1" ht="18">
-      <c r="A69" s="184" t="s">
+      <c r="A69" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="234" t="s">
+      <c r="B69" s="233" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="124"/>
-      <c r="D69" s="186" t="s">
+      <c r="C69" s="123"/>
+      <c r="D69" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="186"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="186"/>
-      <c r="I69" s="186"/>
-      <c r="J69" s="186"/>
-      <c r="K69" s="186"/>
-      <c r="L69" s="186"/>
-      <c r="M69" s="186"/>
+      <c r="E69" s="185"/>
+      <c r="F69" s="185"/>
+      <c r="G69" s="185"/>
+      <c r="H69" s="185"/>
+      <c r="I69" s="185"/>
+      <c r="J69" s="185"/>
+      <c r="K69" s="185"/>
+      <c r="L69" s="185"/>
+      <c r="M69" s="185"/>
       <c r="N69" s="49"/>
       <c r="O69" s="48"/>
       <c r="P69" s="29"/>
@@ -5872,34 +5863,34 @@
       <c r="Y69" s="32"/>
       <c r="Z69" s="34"/>
       <c r="AA69" s="14"/>
-      <c r="AB69" s="193" t="s">
+      <c r="AB69" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="AC69" s="194"/>
-      <c r="AD69" s="194"/>
-      <c r="AE69" s="194"/>
-      <c r="AF69" s="194"/>
-      <c r="AG69" s="194"/>
-      <c r="AH69" s="155"/>
-      <c r="AI69" s="155"/>
-      <c r="AJ69" s="157"/>
+      <c r="AC69" s="193"/>
+      <c r="AD69" s="193"/>
+      <c r="AE69" s="193"/>
+      <c r="AF69" s="193"/>
+      <c r="AG69" s="193"/>
+      <c r="AH69" s="154"/>
+      <c r="AI69" s="154"/>
+      <c r="AJ69" s="156"/>
     </row>
     <row r="70" spans="1:37" customHeight="1" ht="14.25">
-      <c r="A70" s="184"/>
-      <c r="B70" s="234"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="187" t="s">
+      <c r="A70" s="183"/>
+      <c r="B70" s="233"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="E70" s="187"/>
-      <c r="F70" s="187"/>
-      <c r="G70" s="187"/>
-      <c r="H70" s="187"/>
-      <c r="I70" s="187"/>
-      <c r="J70" s="187"/>
-      <c r="K70" s="187"/>
-      <c r="L70" s="187"/>
-      <c r="M70" s="187"/>
+      <c r="E70" s="186"/>
+      <c r="F70" s="186"/>
+      <c r="G70" s="186"/>
+      <c r="H70" s="186"/>
+      <c r="I70" s="186"/>
+      <c r="J70" s="186"/>
+      <c r="K70" s="186"/>
+      <c r="L70" s="186"/>
+      <c r="M70" s="186"/>
       <c r="N70" s="39"/>
       <c r="O70" s="48"/>
       <c r="P70" s="29"/>
@@ -5916,40 +5907,40 @@
       <c r="Y70" s="32"/>
       <c r="Z70" s="34"/>
       <c r="AA70" s="14"/>
-      <c r="AB70" s="193"/>
-      <c r="AC70" s="194"/>
-      <c r="AD70" s="194"/>
-      <c r="AE70" s="194"/>
-      <c r="AF70" s="194"/>
-      <c r="AG70" s="194"/>
-      <c r="AH70" s="156"/>
-      <c r="AI70" s="156"/>
-      <c r="AJ70" s="158"/>
+      <c r="AB70" s="192"/>
+      <c r="AC70" s="193"/>
+      <c r="AD70" s="193"/>
+      <c r="AE70" s="193"/>
+      <c r="AF70" s="193"/>
+      <c r="AG70" s="193"/>
+      <c r="AH70" s="155"/>
+      <c r="AI70" s="155"/>
+      <c r="AJ70" s="157"/>
     </row>
     <row r="71" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A71" s="185" t="s">
+      <c r="A71" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="235" t="s">
+      <c r="B71" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="235"/>
-      <c r="D71" s="192" t="s">
+      <c r="C71" s="234"/>
+      <c r="D71" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="192"/>
-      <c r="F71" s="192"/>
-      <c r="G71" s="192"/>
-      <c r="H71" s="192"/>
-      <c r="I71" s="192"/>
-      <c r="J71" s="192"/>
-      <c r="K71" s="192"/>
-      <c r="L71" s="192"/>
-      <c r="M71" s="192"/>
-      <c r="N71" s="188" t="s">
+      <c r="E71" s="191"/>
+      <c r="F71" s="191"/>
+      <c r="G71" s="191"/>
+      <c r="H71" s="191"/>
+      <c r="I71" s="191"/>
+      <c r="J71" s="191"/>
+      <c r="K71" s="191"/>
+      <c r="L71" s="191"/>
+      <c r="M71" s="191"/>
+      <c r="N71" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="O71" s="188"/>
+      <c r="O71" s="187"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="31" t="s">
         <v>74</v>
@@ -5964,36 +5955,36 @@
       <c r="Y71" s="32"/>
       <c r="Z71" s="34"/>
       <c r="AA71" s="14"/>
-      <c r="AB71" s="208" t="s">
+      <c r="AB71" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="AC71" s="209"/>
-      <c r="AD71" s="209"/>
-      <c r="AE71" s="209"/>
-      <c r="AF71" s="209"/>
-      <c r="AG71" s="210"/>
-      <c r="AH71" s="216"/>
-      <c r="AI71" s="216"/>
-      <c r="AJ71" s="218"/>
+      <c r="AC71" s="208"/>
+      <c r="AD71" s="208"/>
+      <c r="AE71" s="208"/>
+      <c r="AF71" s="208"/>
+      <c r="AG71" s="209"/>
+      <c r="AH71" s="215"/>
+      <c r="AI71" s="215"/>
+      <c r="AJ71" s="217"/>
     </row>
     <row r="72" spans="1:37" customHeight="1" ht="19.5">
-      <c r="A72" s="185"/>
-      <c r="B72" s="235"/>
-      <c r="C72" s="235"/>
-      <c r="D72" s="188" t="s">
+      <c r="A72" s="184"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="188"/>
-      <c r="F72" s="188"/>
-      <c r="G72" s="188"/>
-      <c r="H72" s="188"/>
-      <c r="I72" s="188"/>
-      <c r="J72" s="188"/>
-      <c r="K72" s="188"/>
-      <c r="L72" s="188"/>
-      <c r="M72" s="188"/>
-      <c r="N72" s="188"/>
-      <c r="O72" s="188"/>
+      <c r="E72" s="187"/>
+      <c r="F72" s="187"/>
+      <c r="G72" s="187"/>
+      <c r="H72" s="187"/>
+      <c r="I72" s="187"/>
+      <c r="J72" s="187"/>
+      <c r="K72" s="187"/>
+      <c r="L72" s="187"/>
+      <c r="M72" s="187"/>
+      <c r="N72" s="187"/>
+      <c r="O72" s="187"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="31" t="s">
         <v>77</v>
@@ -6008,29 +5999,29 @@
       <c r="Y72" s="32"/>
       <c r="Z72" s="34"/>
       <c r="AA72" s="14"/>
-      <c r="AB72" s="211"/>
-      <c r="AC72" s="212"/>
-      <c r="AD72" s="212"/>
-      <c r="AE72" s="212"/>
-      <c r="AF72" s="212"/>
-      <c r="AG72" s="213"/>
-      <c r="AH72" s="217"/>
-      <c r="AI72" s="217"/>
-      <c r="AJ72" s="219"/>
+      <c r="AB72" s="210"/>
+      <c r="AC72" s="211"/>
+      <c r="AD72" s="211"/>
+      <c r="AE72" s="211"/>
+      <c r="AF72" s="211"/>
+      <c r="AG72" s="212"/>
+      <c r="AH72" s="216"/>
+      <c r="AI72" s="216"/>
+      <c r="AJ72" s="218"/>
     </row>
     <row r="73" spans="1:37" customHeight="1" ht="26.25">
-      <c r="A73" s="241"/>
-      <c r="B73" s="241"/>
-      <c r="C73" s="241"/>
-      <c r="D73" s="241"/>
-      <c r="E73" s="241"/>
-      <c r="F73" s="241"/>
-      <c r="G73" s="241"/>
-      <c r="H73" s="241"/>
-      <c r="I73" s="241"/>
-      <c r="J73" s="241"/>
-      <c r="K73" s="241"/>
-      <c r="L73" s="241"/>
+      <c r="A73" s="240"/>
+      <c r="B73" s="240"/>
+      <c r="C73" s="240"/>
+      <c r="D73" s="240"/>
+      <c r="E73" s="240"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="240"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="240"/>
+      <c r="J73" s="240"/>
+      <c r="K73" s="240"/>
+      <c r="L73" s="240"/>
       <c r="M73" s="64"/>
       <c r="N73" s="64"/>
       <c r="O73" s="48"/>
@@ -6048,35 +6039,35 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="34"/>
       <c r="AA73" s="14"/>
-      <c r="AB73" s="214" t="s">
+      <c r="AB73" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="AC73" s="215"/>
-      <c r="AD73" s="215"/>
-      <c r="AE73" s="215"/>
-      <c r="AF73" s="215"/>
-      <c r="AG73" s="215"/>
+      <c r="AC73" s="214"/>
+      <c r="AD73" s="214"/>
+      <c r="AE73" s="214"/>
+      <c r="AF73" s="214"/>
+      <c r="AG73" s="214"/>
       <c r="AH73" s="60"/>
       <c r="AI73" s="60"/>
       <c r="AJ73" s="61"/>
     </row>
     <row r="74" spans="1:37" customHeight="1" ht="16.5">
-      <c r="A74" s="200" t="s">
+      <c r="A74" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="200"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="200"/>
-      <c r="J74" s="200"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="200"/>
-      <c r="M74" s="200"/>
-      <c r="N74" s="200"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="199"/>
+      <c r="E74" s="199"/>
+      <c r="F74" s="199"/>
+      <c r="G74" s="199"/>
+      <c r="H74" s="199"/>
+      <c r="I74" s="199"/>
+      <c r="J74" s="199"/>
+      <c r="K74" s="199"/>
+      <c r="L74" s="199"/>
+      <c r="M74" s="199"/>
+      <c r="N74" s="199"/>
       <c r="O74" s="49"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="31" t="s">
@@ -6092,33 +6083,33 @@
       <c r="Y74" s="32"/>
       <c r="Z74" s="34"/>
       <c r="AA74" s="14"/>
-      <c r="AB74" s="224" t="s">
+      <c r="AB74" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="AC74" s="225"/>
-      <c r="AD74" s="225"/>
-      <c r="AE74" s="225"/>
-      <c r="AF74" s="225"/>
-      <c r="AG74" s="225"/>
-      <c r="AH74" s="222"/>
-      <c r="AI74" s="156"/>
-      <c r="AJ74" s="158"/>
+      <c r="AC74" s="224"/>
+      <c r="AD74" s="224"/>
+      <c r="AE74" s="224"/>
+      <c r="AF74" s="224"/>
+      <c r="AG74" s="224"/>
+      <c r="AH74" s="221"/>
+      <c r="AI74" s="155"/>
+      <c r="AJ74" s="157"/>
     </row>
     <row r="75" spans="1:37" customHeight="1" ht="15.75">
-      <c r="A75" s="200"/>
-      <c r="B75" s="200"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="200"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="200"/>
-      <c r="G75" s="200"/>
-      <c r="H75" s="200"/>
-      <c r="I75" s="200"/>
-      <c r="J75" s="200"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="200"/>
-      <c r="M75" s="200"/>
-      <c r="N75" s="200"/>
+      <c r="A75" s="199"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="199"/>
+      <c r="D75" s="199"/>
+      <c r="E75" s="199"/>
+      <c r="F75" s="199"/>
+      <c r="G75" s="199"/>
+      <c r="H75" s="199"/>
+      <c r="I75" s="199"/>
+      <c r="J75" s="199"/>
+      <c r="K75" s="199"/>
+      <c r="L75" s="199"/>
+      <c r="M75" s="199"/>
+      <c r="N75" s="199"/>
       <c r="O75" s="49"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="31" t="s">
@@ -6134,33 +6125,33 @@
       <c r="Y75" s="32"/>
       <c r="Z75" s="34"/>
       <c r="AA75" s="14"/>
-      <c r="AB75" s="224"/>
-      <c r="AC75" s="225"/>
-      <c r="AD75" s="225"/>
-      <c r="AE75" s="225"/>
-      <c r="AF75" s="225"/>
-      <c r="AG75" s="225"/>
-      <c r="AH75" s="223"/>
-      <c r="AI75" s="156"/>
-      <c r="AJ75" s="158"/>
+      <c r="AB75" s="223"/>
+      <c r="AC75" s="224"/>
+      <c r="AD75" s="224"/>
+      <c r="AE75" s="224"/>
+      <c r="AF75" s="224"/>
+      <c r="AG75" s="224"/>
+      <c r="AH75" s="222"/>
+      <c r="AI75" s="155"/>
+      <c r="AJ75" s="157"/>
     </row>
     <row r="76" spans="1:37" customHeight="1" ht="15.75">
       <c r="A76" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="121"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
-      <c r="M76" s="122"/>
-      <c r="N76" s="122"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="121"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="121"/>
+      <c r="K76" s="121"/>
+      <c r="L76" s="121"/>
+      <c r="M76" s="121"/>
+      <c r="N76" s="121"/>
       <c r="O76" s="49"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="31" t="s">
@@ -6176,37 +6167,37 @@
       <c r="Y76" s="32"/>
       <c r="Z76" s="34"/>
       <c r="AA76" s="15"/>
-      <c r="AB76" s="224" t="s">
+      <c r="AB76" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="AC76" s="225"/>
-      <c r="AD76" s="225"/>
-      <c r="AE76" s="225"/>
-      <c r="AF76" s="225"/>
-      <c r="AG76" s="225"/>
-      <c r="AH76" s="226"/>
-      <c r="AI76" s="228"/>
-      <c r="AJ76" s="230"/>
+      <c r="AC76" s="224"/>
+      <c r="AD76" s="224"/>
+      <c r="AE76" s="224"/>
+      <c r="AF76" s="224"/>
+      <c r="AG76" s="224"/>
+      <c r="AH76" s="225"/>
+      <c r="AI76" s="227"/>
+      <c r="AJ76" s="229"/>
     </row>
     <row r="77" spans="1:37" customHeight="1" ht="16.5">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="240" t="s">
+      <c r="B77" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="240"/>
-      <c r="D77" s="240"/>
-      <c r="E77" s="240"/>
-      <c r="F77" s="240"/>
-      <c r="G77" s="240"/>
-      <c r="H77" s="240"/>
-      <c r="I77" s="240"/>
-      <c r="J77" s="240"/>
-      <c r="K77" s="240"/>
-      <c r="L77" s="240"/>
-      <c r="M77" s="240"/>
-      <c r="N77" s="240"/>
+      <c r="C77" s="239"/>
+      <c r="D77" s="239"/>
+      <c r="E77" s="239"/>
+      <c r="F77" s="239"/>
+      <c r="G77" s="239"/>
+      <c r="H77" s="239"/>
+      <c r="I77" s="239"/>
+      <c r="J77" s="239"/>
+      <c r="K77" s="239"/>
+      <c r="L77" s="239"/>
+      <c r="M77" s="239"/>
+      <c r="N77" s="239"/>
       <c r="O77" s="49"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="31" t="s">
@@ -6222,15 +6213,15 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="34"/>
       <c r="AA77" s="14"/>
-      <c r="AB77" s="224"/>
-      <c r="AC77" s="225"/>
-      <c r="AD77" s="225"/>
-      <c r="AE77" s="225"/>
-      <c r="AF77" s="225"/>
-      <c r="AG77" s="225"/>
-      <c r="AH77" s="227"/>
-      <c r="AI77" s="229"/>
-      <c r="AJ77" s="231"/>
+      <c r="AB77" s="223"/>
+      <c r="AC77" s="224"/>
+      <c r="AD77" s="224"/>
+      <c r="AE77" s="224"/>
+      <c r="AF77" s="224"/>
+      <c r="AG77" s="224"/>
+      <c r="AH77" s="226"/>
+      <c r="AI77" s="228"/>
+      <c r="AJ77" s="230"/>
     </row>
     <row r="78" spans="1:37" customHeight="1" ht="14.25">
       <c r="A78" s="49"/>
@@ -6262,17 +6253,17 @@
       <c r="Y78" s="32"/>
       <c r="Z78" s="34"/>
       <c r="AA78" s="14"/>
-      <c r="AB78" s="204" t="s">
+      <c r="AB78" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="AC78" s="205"/>
-      <c r="AD78" s="205"/>
-      <c r="AE78" s="205"/>
-      <c r="AF78" s="205"/>
-      <c r="AG78" s="205"/>
-      <c r="AH78" s="195"/>
-      <c r="AI78" s="195"/>
-      <c r="AJ78" s="165"/>
+      <c r="AC78" s="204"/>
+      <c r="AD78" s="204"/>
+      <c r="AE78" s="204"/>
+      <c r="AF78" s="204"/>
+      <c r="AG78" s="204"/>
+      <c r="AH78" s="194"/>
+      <c r="AI78" s="194"/>
+      <c r="AJ78" s="164"/>
     </row>
     <row r="79" spans="1:37" customHeight="1" ht="15.75">
       <c r="A79" s="39"/>
@@ -6304,15 +6295,15 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="34"/>
       <c r="AA79" s="14"/>
-      <c r="AB79" s="204"/>
-      <c r="AC79" s="205"/>
-      <c r="AD79" s="205"/>
-      <c r="AE79" s="205"/>
-      <c r="AF79" s="205"/>
-      <c r="AG79" s="205"/>
-      <c r="AH79" s="195"/>
-      <c r="AI79" s="195"/>
-      <c r="AJ79" s="165"/>
+      <c r="AB79" s="203"/>
+      <c r="AC79" s="204"/>
+      <c r="AD79" s="204"/>
+      <c r="AE79" s="204"/>
+      <c r="AF79" s="204"/>
+      <c r="AG79" s="204"/>
+      <c r="AH79" s="194"/>
+      <c r="AI79" s="194"/>
+      <c r="AJ79" s="164"/>
     </row>
     <row r="80" spans="1:37" customHeight="1" ht="15.75">
       <c r="B80" s="14"/>
@@ -6343,17 +6334,17 @@
       <c r="Y80" s="14"/>
       <c r="Z80" s="34"/>
       <c r="AA80" s="14"/>
-      <c r="AB80" s="204" t="s">
+      <c r="AB80" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="AC80" s="205"/>
-      <c r="AD80" s="205"/>
-      <c r="AE80" s="205"/>
-      <c r="AF80" s="205"/>
-      <c r="AG80" s="205"/>
-      <c r="AH80" s="156"/>
-      <c r="AI80" s="156"/>
-      <c r="AJ80" s="158"/>
+      <c r="AC80" s="204"/>
+      <c r="AD80" s="204"/>
+      <c r="AE80" s="204"/>
+      <c r="AF80" s="204"/>
+      <c r="AG80" s="204"/>
+      <c r="AH80" s="155"/>
+      <c r="AI80" s="155"/>
+      <c r="AJ80" s="157"/>
     </row>
     <row r="81" spans="1:37" customHeight="1" ht="14.25">
       <c r="B81" s="47"/>
@@ -6384,23 +6375,23 @@
       <c r="Y81" s="32"/>
       <c r="Z81" s="34"/>
       <c r="AA81" s="14"/>
-      <c r="AB81" s="204"/>
-      <c r="AC81" s="205"/>
-      <c r="AD81" s="205"/>
-      <c r="AE81" s="205"/>
-      <c r="AF81" s="205"/>
-      <c r="AG81" s="205"/>
-      <c r="AH81" s="156"/>
-      <c r="AI81" s="156"/>
-      <c r="AJ81" s="158"/>
+      <c r="AB81" s="203"/>
+      <c r="AC81" s="204"/>
+      <c r="AD81" s="204"/>
+      <c r="AE81" s="204"/>
+      <c r="AF81" s="204"/>
+      <c r="AG81" s="204"/>
+      <c r="AH81" s="155"/>
+      <c r="AI81" s="155"/>
+      <c r="AJ81" s="157"/>
     </row>
     <row r="82" spans="1:37" customHeight="1" ht="15">
-      <c r="B82" s="232"/>
-      <c r="C82" s="232"/>
-      <c r="D82" s="232"/>
-      <c r="E82" s="232"/>
-      <c r="F82" s="232"/>
-      <c r="G82" s="232"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="231"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -6423,25 +6414,25 @@
       <c r="Y82" s="14"/>
       <c r="Z82" s="34"/>
       <c r="AA82" s="65"/>
-      <c r="AB82" s="204" t="s">
+      <c r="AB82" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="AC82" s="205"/>
-      <c r="AD82" s="205"/>
-      <c r="AE82" s="205"/>
-      <c r="AF82" s="205"/>
-      <c r="AG82" s="205"/>
-      <c r="AH82" s="156"/>
-      <c r="AI82" s="156"/>
-      <c r="AJ82" s="158"/>
+      <c r="AC82" s="204"/>
+      <c r="AD82" s="204"/>
+      <c r="AE82" s="204"/>
+      <c r="AF82" s="204"/>
+      <c r="AG82" s="204"/>
+      <c r="AH82" s="155"/>
+      <c r="AI82" s="155"/>
+      <c r="AJ82" s="157"/>
     </row>
     <row r="83" spans="1:37" customHeight="1" ht="15.75">
-      <c r="B83" s="232"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="232"/>
-      <c r="G83" s="232"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="231"/>
+      <c r="D83" s="231"/>
+      <c r="E83" s="231"/>
+      <c r="F83" s="231"/>
+      <c r="G83" s="231"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -6464,15 +6455,15 @@
       <c r="Y83" s="14"/>
       <c r="Z83" s="34"/>
       <c r="AA83" s="14"/>
-      <c r="AB83" s="206"/>
-      <c r="AC83" s="207"/>
-      <c r="AD83" s="207"/>
-      <c r="AE83" s="207"/>
-      <c r="AF83" s="207"/>
-      <c r="AG83" s="207"/>
-      <c r="AH83" s="220"/>
-      <c r="AI83" s="220"/>
-      <c r="AJ83" s="221"/>
+      <c r="AB83" s="205"/>
+      <c r="AC83" s="206"/>
+      <c r="AD83" s="206"/>
+      <c r="AE83" s="206"/>
+      <c r="AF83" s="206"/>
+      <c r="AG83" s="206"/>
+      <c r="AH83" s="219"/>
+      <c r="AI83" s="219"/>
+      <c r="AJ83" s="220"/>
     </row>
     <row r="84" spans="1:37" customHeight="1" ht="14.25">
       <c r="B84" s="9"/>
@@ -6534,7 +6525,7 @@
       <c r="Y85" s="14"/>
       <c r="Z85" s="34"/>
       <c r="AA85" s="14"/>
-      <c r="AB85" s="126" t="s">
+      <c r="AB85" s="125" t="s">
         <v>101</v>
       </c>
       <c r="AI85" s="14"/>
@@ -6587,18 +6578,18 @@
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="29"/>
-      <c r="Q87" s="137" t="s">
+      <c r="Q87" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="R87" s="138"/>
-      <c r="S87" s="138"/>
-      <c r="T87" s="138"/>
-      <c r="U87" s="138"/>
-      <c r="V87" s="138"/>
-      <c r="W87" s="138"/>
-      <c r="X87" s="138"/>
-      <c r="Y87" s="138"/>
-      <c r="Z87" s="139"/>
+      <c r="R87" s="137"/>
+      <c r="S87" s="137"/>
+      <c r="T87" s="137"/>
+      <c r="U87" s="137"/>
+      <c r="V87" s="137"/>
+      <c r="W87" s="137"/>
+      <c r="X87" s="137"/>
+      <c r="Y87" s="137"/>
+      <c r="Z87" s="138"/>
       <c r="AA87" s="14"/>
       <c r="AD87" s="23"/>
       <c r="AE87" s="23"/>
@@ -6623,16 +6614,16 @@
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="29"/>
-      <c r="Q88" s="137"/>
-      <c r="R88" s="138"/>
-      <c r="S88" s="138"/>
-      <c r="T88" s="138"/>
-      <c r="U88" s="138"/>
-      <c r="V88" s="138"/>
-      <c r="W88" s="138"/>
-      <c r="X88" s="138"/>
-      <c r="Y88" s="138"/>
-      <c r="Z88" s="139"/>
+      <c r="Q88" s="136"/>
+      <c r="R88" s="137"/>
+      <c r="S88" s="137"/>
+      <c r="T88" s="137"/>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137"/>
+      <c r="W88" s="137"/>
+      <c r="X88" s="137"/>
+      <c r="Y88" s="137"/>
+      <c r="Z88" s="138"/>
       <c r="AA88" s="14"/>
       <c r="AC88" s="36" t="s">
         <v>104</v>
@@ -6692,7 +6683,7 @@
       <c r="Y90" s="14"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="14"/>
-      <c r="AB90" s="126" t="s">
+      <c r="AB90" s="125" t="s">
         <v>107</v>
       </c>
       <c r="AD90" s="21"/>
